--- a/Version 1/Negative-Payoff/Experiments/Part1-Uniform-MajorMinor/document-popularity/MajorMinor results/Workbook.xlsx
+++ b/Version 1/Negative-Payoff/Experiments/Part1-Uniform-MajorMinor/document-popularity/MajorMinor results/Workbook.xlsx
@@ -4,22 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
+    <workbookView xWindow="1880" yWindow="0" windowWidth="25600" windowHeight="16620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_02_50_47.008_PM_26_Sep_2016" localSheetId="0">Sheet1!$A$1:$B$82</definedName>
-    <definedName name="_02_50_47.097_PM_26_Sep_2016" localSheetId="0">Sheet1!$D$1:$E$82</definedName>
-    <definedName name="_02_50_47.101_PM_26_Sep_2016" localSheetId="0">Sheet1!$G$1:$H$82</definedName>
-    <definedName name="_02_50_47.435_PM_26_Sep_2016" localSheetId="0">Sheet1!$J$1:$K$82</definedName>
-    <definedName name="_02_51_46.259_PM_26_Sep_2016" localSheetId="0">Sheet1!$M$1:$N$82</definedName>
-    <definedName name="_02_51_46.815_PM_26_Sep_2016" localSheetId="0">Sheet1!$P$1:$Q$82</definedName>
-    <definedName name="_02_51_46.852_PM_26_Sep_2016" localSheetId="0">Sheet1!$S$1:$T$82</definedName>
-    <definedName name="_02_51_50.260_PM_26_Sep_2016" localSheetId="0">Sheet1!$V$1:$W$82</definedName>
-    <definedName name="_02_52_41.197_PM_26_Sep_2016" localSheetId="0">Sheet1!$Y$1:$Z$82</definedName>
-    <definedName name="_02_52_43.103_PM_26_Sep_2016" localSheetId="0">Sheet1!$AB$1:$AC$82</definedName>
+    <definedName name="_02_50_47.008_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_50_47.097_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_50_47.101_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_50_47.435_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_51_46.259_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_51_46.815_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_51_46.852_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_51_50.260_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_52_41.197_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="_02_52_43.103_PM_26_Sep_2016" localSheetId="0">Sheet1!#REF!</definedName>
+    <definedName name="MajorMinor_Results_100" localSheetId="0">Sheet1!$A$1:$B$82</definedName>
+    <definedName name="MajorMinor_Results_1000" localSheetId="0">Sheet1!$AB$1:$AC$82</definedName>
+    <definedName name="MajorMinor_Results_200" localSheetId="0">Sheet1!$D$1:$E$82</definedName>
+    <definedName name="MajorMinor_Results_300" localSheetId="0">Sheet1!$G$1:$H$82</definedName>
+    <definedName name="MajorMinor_Results_400" localSheetId="0">Sheet1!$J$1:$K$82</definedName>
+    <definedName name="MajorMinor_Results_500" localSheetId="0">Sheet1!$M$1:$N$82</definedName>
+    <definedName name="MajorMinor_Results_600" localSheetId="0">Sheet1!$P$1:$Q$82</definedName>
+    <definedName name="MajorMinor_Results_700" localSheetId="0">Sheet1!$S$1:$T$82</definedName>
+    <definedName name="MajorMinor_Results_800" localSheetId="0">Sheet1!$V$1:$W$82</definedName>
+    <definedName name="MajorMinor_Results_900" localSheetId="0">Sheet1!$Y$1:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -32,71 +42,71 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="02/50/47.008 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/50/47.008 PM 26-Sep-2016.csv" comma="1">
+  <connection id="1" name="MajorMinor Results 100.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 100.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="02/50/47.097 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/50/47.097 PM 26-Sep-2016.csv" comma="1">
+  <connection id="2" name="MajorMinor Results 1000.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 1000.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" name="02/50/47.101 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/50/47.101 PM 26-Sep-2016.csv" comma="1">
+  <connection id="3" name="MajorMinor Results 200.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 200.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" name="02/50/47.435 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/50/47.435 PM 26-Sep-2016.csv" comma="1">
+  <connection id="4" name="MajorMinor Results 300.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 300.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" name="02/51/46.259 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/51/46.259 PM 26-Sep-2016.csv" comma="1">
+  <connection id="5" name="MajorMinor Results 400.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 400.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" name="02/51/46.815 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/51/46.815 PM 26-Sep-2016.csv" comma="1">
+  <connection id="6" name="MajorMinor Results 500.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 500.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" name="02/51/46.852 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/51/46.852 PM 26-Sep-2016.csv" comma="1">
+  <connection id="7" name="MajorMinor Results 600.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 600.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="02/51/50.260 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/51/50.260 PM 26-Sep-2016.csv" comma="1">
+  <connection id="8" name="MajorMinor Results 700.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 700.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="02/52/41.197 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/52/41.197 PM 26-Sep-2016.csv" comma="1">
+  <connection id="9" name="MajorMinor Results 800.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 800.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="02/52/43.103 PM 26-Sep-2016.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:02/52/43.103 PM 26-Sep-2016.csv" comma="1">
+  <connection id="10" name="MajorMinor Results 900.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:alirezafaridamin:Desktop:SoftwareAgents:Decentralized-Social-Sharing-Simulator-master:Version 1:Negative-Payoff:Experiments:Part1-Uniform-MajorMinor:document-popularity:MajorMinor results:MajorMinor Results 900.csv" comma="1">
       <textFields>
         <textField/>
       </textFields>
@@ -106,12 +116,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
-    <t>Major taste</t>
+    <t xml:space="preserve">Taste 1 </t>
   </si>
   <si>
-    <t>Minor taste</t>
+    <t xml:space="preserve"> Taste 0</t>
   </si>
 </sst>
 </file>
@@ -159,43 +169,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/52/43.103 PM 26-Sep-2016" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 1000" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/50/47.008 PM 26-Sep-2016" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 100" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/52/41.197 PM 26-Sep-2016" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 900" connectionId="10" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/51/50.260 PM 26-Sep-2016" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 800" connectionId="9" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/51/46.852 PM 26-Sep-2016" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 700" connectionId="8" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/51/46.815 PM 26-Sep-2016" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 600" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/51/46.259 PM 26-Sep-2016" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 500" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/50/47.435 PM 26-Sep-2016" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 400" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/50/47.101 PM 26-Sep-2016" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 300" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="02/50/47.097 PM 26-Sep-2016" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MajorMinor Results 200" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,42 +532,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="P1:Q1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1">
+        <v>100</v>
+      </c>
+      <c r="D1">
         <v>200</v>
-      </c>
-      <c r="D1">
-        <v>400</v>
       </c>
       <c r="G1">
         <v>300</v>
       </c>
       <c r="J1">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M1">
         <v>500</v>
@@ -579,6 +589,18 @@
       </c>
     </row>
     <row r="2" spans="1:29">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
@@ -636,4654 +658,4654 @@
         <v>-0.5</v>
       </c>
       <c r="D3">
-        <v>7.4523809523809499</v>
+        <v>7.21428571428571</v>
       </c>
       <c r="E3">
         <v>-2.5</v>
       </c>
       <c r="G3">
-        <v>7.1190476190476097</v>
+        <v>3.4523809523809499</v>
       </c>
       <c r="H3">
-        <v>-2.5</v>
+        <v>1.5</v>
       </c>
       <c r="J3">
-        <v>5.21428571428571</v>
+        <v>5.4523809523809499</v>
       </c>
       <c r="K3">
         <v>-0.5</v>
       </c>
       <c r="M3">
-        <v>3.5</v>
+        <v>3.3095238095238</v>
       </c>
       <c r="N3">
-        <v>1.2777777777777699</v>
+        <v>1.5</v>
       </c>
       <c r="P3">
-        <v>5.4047619047618998</v>
+        <v>7.0714285714285703</v>
       </c>
       <c r="Q3">
+        <v>-2.5</v>
+      </c>
+      <c r="S3">
+        <v>5.5</v>
+      </c>
+      <c r="T3">
         <v>-0.5</v>
       </c>
-      <c r="S3">
-        <v>7.1666666666666599</v>
-      </c>
-      <c r="T3">
+      <c r="V3">
+        <v>5.3095238095238004</v>
+      </c>
+      <c r="W3">
+        <v>-0.61111111111111105</v>
+      </c>
+      <c r="Y3">
+        <v>7.3571428571428497</v>
+      </c>
+      <c r="Z3">
         <v>-2.5</v>
       </c>
-      <c r="V3">
-        <v>7.4523809523809499</v>
-      </c>
-      <c r="W3">
-        <v>-2.5</v>
-      </c>
-      <c r="Y3">
-        <v>3.4523809523809499</v>
-      </c>
-      <c r="Z3">
+      <c r="AB3">
+        <v>3.21428571428571</v>
+      </c>
+      <c r="AC3">
         <v>1.5</v>
-      </c>
-      <c r="AB3">
-        <v>5.3571428571428497</v>
-      </c>
-      <c r="AC3">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="A4">
-        <v>6.5119047619047601</v>
+        <v>5.0595238095238004</v>
       </c>
       <c r="B4">
-        <v>2.9166666666666599</v>
+        <v>5.8611111111111098</v>
       </c>
       <c r="D4">
-        <v>10.035714285714199</v>
+        <v>12.964285714285699</v>
       </c>
       <c r="E4">
-        <v>0.25</v>
+        <v>-3.4722222222222201</v>
       </c>
       <c r="G4">
-        <v>13.6785714285714</v>
+        <v>8.0476190476190403</v>
       </c>
       <c r="H4">
-        <v>-4.80555555555555</v>
+        <v>2.2222222222222201</v>
       </c>
       <c r="J4">
-        <v>12.0714285714285</v>
+        <v>6.8571428571428497</v>
       </c>
       <c r="K4">
-        <v>-1.94444444444444</v>
+        <v>3.1111111111111098</v>
       </c>
       <c r="M4">
-        <v>5.1785714285714199</v>
+        <v>2.25</v>
       </c>
       <c r="N4">
-        <v>4.80555555555555</v>
+        <v>8.5277777777777697</v>
       </c>
       <c r="P4">
-        <v>3.6190476190476102</v>
+        <v>12.119047619047601</v>
       </c>
       <c r="Q4">
-        <v>6.7777777777777697</v>
+        <v>-3.05555555555555</v>
       </c>
       <c r="S4">
-        <v>7.2738095238095202</v>
+        <v>4.1190476190476097</v>
       </c>
       <c r="T4">
-        <v>2.13888888888888</v>
+        <v>6.1666666666666599</v>
       </c>
       <c r="V4">
-        <v>11.785714285714199</v>
+        <v>9.46428571428571</v>
       </c>
       <c r="W4">
-        <v>-1.5</v>
+        <v>-0.194444444444444</v>
       </c>
       <c r="Y4">
-        <v>8.7380952380952301</v>
+        <v>10.9761904761904</v>
       </c>
       <c r="Z4">
-        <v>0.5</v>
+        <v>-1.6111111111111101</v>
       </c>
       <c r="AB4">
-        <v>10.107142857142801</v>
+        <v>4.8095238095238004</v>
       </c>
       <c r="AC4">
-        <v>-1.5833333333333299</v>
+        <v>5.6666666666666599</v>
       </c>
     </row>
     <row r="5" spans="1:29">
       <c r="A5">
-        <v>11.1309523809523</v>
+        <v>6.8571428571428497</v>
       </c>
       <c r="B5">
-        <v>3.0277777777777701</v>
+        <v>7.4444444444444402</v>
       </c>
       <c r="D5">
-        <v>13.345238095238001</v>
+        <v>18.023809523809501</v>
       </c>
       <c r="E5">
-        <v>2.75</v>
+        <v>-5.1666666666666599</v>
       </c>
       <c r="G5">
-        <v>19.714285714285701</v>
+        <v>10.0714285714285</v>
       </c>
       <c r="H5">
-        <v>-4.8888888888888804</v>
+        <v>3.7222222222222201</v>
       </c>
       <c r="J5">
-        <v>17.571428571428498</v>
+        <v>10.2261904761904</v>
       </c>
       <c r="K5">
-        <v>-3.55555555555555</v>
+        <v>5.0277777777777697</v>
       </c>
       <c r="M5">
-        <v>11.1785714285714</v>
+        <v>1.52380952380952</v>
       </c>
       <c r="N5">
-        <v>2.9166666666666599</v>
+        <v>16.2222222222222</v>
       </c>
       <c r="P5">
-        <v>3.7619047619047601</v>
+        <v>14.2380952380952</v>
       </c>
       <c r="Q5">
-        <v>10.1111111111111</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>10.6309523809523</v>
+        <v>4.7380952380952301</v>
       </c>
       <c r="T5">
-        <v>2.75</v>
+        <v>8.7222222222222197</v>
       </c>
       <c r="V5">
-        <v>12.6309523809523</v>
+        <v>15.6428571428571</v>
       </c>
       <c r="W5">
-        <v>2.1944444444444402</v>
+        <v>-1.8333333333333299</v>
       </c>
       <c r="Y5">
-        <v>15.5</v>
+        <v>14.297619047618999</v>
       </c>
       <c r="Z5">
-        <v>-1.2777777777777699</v>
+        <v>-1.25</v>
       </c>
       <c r="AB5">
-        <v>13.75</v>
+        <v>6.3809523809523796</v>
       </c>
       <c r="AC5">
-        <v>1.13888888888888</v>
+        <v>9.8888888888888893</v>
       </c>
     </row>
     <row r="6" spans="1:29">
       <c r="A6">
-        <v>16.511904761904699</v>
+        <v>11.297619047618999</v>
       </c>
       <c r="B6">
-        <v>1.9166666666666601</v>
+        <v>7.30555555555555</v>
       </c>
       <c r="D6">
-        <v>13.702380952380899</v>
+        <v>23.7261904761904</v>
       </c>
       <c r="E6">
-        <v>10.25</v>
+        <v>-6.9166666666666599</v>
       </c>
       <c r="G6">
-        <v>24.3333333333333</v>
+        <v>10.5595238095238</v>
       </c>
       <c r="H6">
-        <v>-3.1111111111111098</v>
+        <v>7.4722222222222197</v>
       </c>
       <c r="J6">
-        <v>24.238095238095202</v>
+        <v>13.3333333333333</v>
       </c>
       <c r="K6">
-        <v>-5.2222222222222197</v>
+        <v>6.1111111111111098</v>
       </c>
       <c r="M6">
-        <v>17.940476190476101</v>
+        <v>0.30952380952380898</v>
       </c>
       <c r="N6">
-        <v>2.0277777777777701</v>
+        <v>19.9444444444444</v>
       </c>
       <c r="P6">
+        <v>15.607142857142801</v>
+      </c>
+      <c r="Q6">
+        <v>4.25</v>
+      </c>
+      <c r="S6">
         <v>8.8095238095238102</v>
       </c>
-      <c r="Q6">
-        <v>10.7777777777777</v>
-      </c>
-      <c r="S6">
-        <v>14.023809523809501</v>
-      </c>
       <c r="T6">
-        <v>4.7222222222222197</v>
+        <v>10.4444444444444</v>
       </c>
       <c r="V6">
-        <v>14.2380952380952</v>
+        <v>23.428571428571399</v>
       </c>
       <c r="W6">
-        <v>4.55555555555555</v>
+        <v>-3.55555555555555</v>
       </c>
       <c r="Y6">
-        <v>22.607142857142801</v>
+        <v>18.547619047619001</v>
       </c>
       <c r="Z6">
-        <v>-3.4166666666666599</v>
+        <v>-2.05555555555555</v>
       </c>
       <c r="AB6">
-        <v>17.047619047619001</v>
+        <v>7.96428571428571</v>
       </c>
       <c r="AC6">
-        <v>3.7777777777777701</v>
+        <v>12.0833333333333</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7">
-        <v>22.821428571428498</v>
+        <v>14.714285714285699</v>
       </c>
       <c r="B7">
-        <v>0.41666666666666602</v>
+        <v>9.55555555555555</v>
       </c>
       <c r="D7">
-        <v>13.523809523809501</v>
+        <v>28.607142857142801</v>
       </c>
       <c r="E7">
-        <v>17</v>
+        <v>-9.9722222222222197</v>
       </c>
       <c r="G7">
-        <v>27.380952380952301</v>
+        <v>14.1428571428571</v>
       </c>
       <c r="H7">
-        <v>-0.33333333333333298</v>
+        <v>8.2222222222222197</v>
       </c>
       <c r="J7">
-        <v>30.619047619047599</v>
+        <v>17.357142857142801</v>
       </c>
       <c r="K7">
-        <v>-7.2222222222222197</v>
+        <v>8.5</v>
       </c>
       <c r="M7">
-        <v>22.6428571428571</v>
+        <v>-0.38095238095237999</v>
       </c>
       <c r="N7">
-        <v>2.38888888888888</v>
+        <v>27.4444444444444</v>
       </c>
       <c r="P7">
-        <v>14.035714285714199</v>
+        <v>16.428571428571399</v>
       </c>
       <c r="Q7">
-        <v>10.0277777777777</v>
+        <v>9.1111111111111107</v>
       </c>
       <c r="S7">
-        <v>19.464285714285701</v>
+        <v>12.6785714285714</v>
       </c>
       <c r="T7">
-        <v>5.0277777777777697</v>
+        <v>10.6388888888888</v>
       </c>
       <c r="V7">
-        <v>17.297619047619001</v>
+        <v>29.404761904761902</v>
       </c>
       <c r="W7">
-        <v>5.9722222222222197</v>
+        <v>-6.3888888888888804</v>
       </c>
       <c r="Y7">
-        <v>28.857142857142801</v>
+        <v>25.095238095237999</v>
       </c>
       <c r="Z7">
-        <v>-5.8888888888888804</v>
+        <v>-3.2222222222222201</v>
       </c>
       <c r="AB7">
-        <v>17.178571428571399</v>
+        <v>11.5595238095238</v>
       </c>
       <c r="AC7">
-        <v>7.3611111111111098</v>
+        <v>13.8055555555555</v>
       </c>
     </row>
     <row r="8" spans="1:29">
       <c r="A8">
-        <v>29.1666666666666</v>
+        <v>19.071428571428498</v>
       </c>
       <c r="B8">
-        <v>-0.61111111111111105</v>
+        <v>11.7222222222222</v>
       </c>
       <c r="D8">
-        <v>12.6428571428571</v>
+        <v>33.1666666666666</v>
       </c>
       <c r="E8">
-        <v>21.0555555555555</v>
+        <v>-9.2777777777777697</v>
       </c>
       <c r="G8">
-        <v>27.107142857142801</v>
+        <v>20.023809523809501</v>
       </c>
       <c r="H8">
-        <v>2.4166666666666599</v>
+        <v>7.05555555555555</v>
       </c>
       <c r="J8">
-        <v>35.892857142857103</v>
+        <v>19.821428571428498</v>
       </c>
       <c r="K8">
-        <v>-7.8611111111111098</v>
+        <v>10.5277777777777</v>
       </c>
       <c r="M8">
-        <v>27.380952380952301</v>
+        <v>-9.5238095238095205E-2</v>
       </c>
       <c r="N8">
-        <v>4.3333333333333304</v>
+        <v>29.4444444444444</v>
       </c>
       <c r="P8">
-        <v>20.5</v>
+        <v>18.523809523809501</v>
       </c>
       <c r="Q8">
-        <v>9.6111111111111107</v>
+        <v>11</v>
       </c>
       <c r="S8">
-        <v>24.0833333333333</v>
+        <v>18.654761904761902</v>
       </c>
       <c r="T8">
-        <v>4.6944444444444402</v>
+        <v>11.1388888888888</v>
       </c>
       <c r="V8">
-        <v>22.4166666666666</v>
+        <v>37.142857142857103</v>
       </c>
       <c r="W8">
-        <v>6.25</v>
+        <v>-8</v>
       </c>
       <c r="Y8">
-        <v>35.178571428571402</v>
+        <v>31.630952380952301</v>
       </c>
       <c r="Z8">
-        <v>-7.1944444444444402</v>
+        <v>-5.9166666666666599</v>
       </c>
       <c r="AB8">
-        <v>18.773809523809501</v>
+        <v>14.952380952380899</v>
       </c>
       <c r="AC8">
-        <v>10.8611111111111</v>
+        <v>15.8888888888888</v>
       </c>
     </row>
     <row r="9" spans="1:29">
       <c r="A9">
-        <v>35.690476190476097</v>
+        <v>20.880952380952301</v>
       </c>
       <c r="B9">
-        <v>-1.94444444444444</v>
+        <v>15.7222222222222</v>
       </c>
       <c r="D9">
-        <v>13.345238095238001</v>
+        <v>37.119047619047599</v>
       </c>
       <c r="E9">
-        <v>26.75</v>
+        <v>-6.5</v>
       </c>
       <c r="G9">
-        <v>27.773809523809501</v>
+        <v>26.571428571428498</v>
       </c>
       <c r="H9">
-        <v>9.30555555555555</v>
+        <v>5.4444444444444402</v>
       </c>
       <c r="J9">
-        <v>39.619047619047599</v>
+        <v>24.988095238095202</v>
       </c>
       <c r="K9">
-        <v>-7.7777777777777697</v>
+        <v>11.4722222222222</v>
       </c>
       <c r="M9">
-        <v>30.8095238095238</v>
+        <v>5.3690476190476097</v>
       </c>
       <c r="N9">
-        <v>4.7777777777777697</v>
+        <v>29.25</v>
       </c>
       <c r="P9">
-        <v>27</v>
+        <v>20.988095238095202</v>
       </c>
       <c r="Q9">
-        <v>7.2222222222222197</v>
+        <v>13.4722222222222</v>
       </c>
       <c r="S9">
-        <v>27.857142857142801</v>
+        <v>23.869047619047599</v>
       </c>
       <c r="T9">
-        <v>5.8888888888888804</v>
+        <v>9.1944444444444393</v>
       </c>
       <c r="V9">
-        <v>27.702380952380899</v>
+        <v>44.178571428571402</v>
       </c>
       <c r="W9">
-        <v>4.80555555555555</v>
+        <v>-9.0833333333333304</v>
       </c>
       <c r="Y9">
-        <v>41.678571428571402</v>
+        <v>38.845238095238003</v>
       </c>
       <c r="Z9">
-        <v>-8.25</v>
+        <v>-7.1944444444444402</v>
       </c>
       <c r="AB9">
-        <v>22.261904761904699</v>
+        <v>19.702380952380899</v>
       </c>
       <c r="AC9">
-        <v>11.7222222222222</v>
+        <v>15.5833333333333</v>
       </c>
     </row>
     <row r="10" spans="1:29">
       <c r="A10">
-        <v>42.714285714285701</v>
+        <v>23.202380952380899</v>
       </c>
       <c r="B10">
-        <v>-2.55555555555555</v>
+        <v>18.8611111111111</v>
       </c>
       <c r="D10">
-        <v>11.797619047618999</v>
+        <v>41.404761904761898</v>
       </c>
       <c r="E10">
-        <v>30.9166666666666</v>
+        <v>-3.05555555555555</v>
       </c>
       <c r="G10">
-        <v>27.357142857142801</v>
+        <v>33.726190476190403</v>
       </c>
       <c r="H10">
-        <v>14.2777777777777</v>
+        <v>3.8611111111111098</v>
       </c>
       <c r="J10">
-        <v>44.5833333333333</v>
+        <v>30.714285714285701</v>
       </c>
       <c r="K10">
-        <v>-7.3611111111111098</v>
+        <v>10.4444444444444</v>
       </c>
       <c r="M10">
-        <v>32.059523809523803</v>
+        <v>10.714285714285699</v>
       </c>
       <c r="N10">
-        <v>7.4166666666666599</v>
+        <v>27.3333333333333</v>
       </c>
       <c r="P10">
-        <v>32.726190476190403</v>
+        <v>25.119047619047599</v>
       </c>
       <c r="Q10">
-        <v>6.0833333333333304</v>
+        <v>14.3888888888888</v>
       </c>
       <c r="S10">
-        <v>31.571428571428498</v>
+        <v>31.119047619047599</v>
       </c>
       <c r="T10">
-        <v>8.1111111111111107</v>
+        <v>7.8333333333333304</v>
       </c>
       <c r="V10">
-        <v>33.845238095238003</v>
+        <v>50.107142857142797</v>
       </c>
       <c r="W10">
-        <v>4.3611111111111098</v>
+        <v>-10.6944444444444</v>
       </c>
       <c r="Y10">
-        <v>48.190476190476097</v>
+        <v>44.619047619047599</v>
       </c>
       <c r="Z10">
-        <v>-9.2222222222222197</v>
+        <v>-8.4444444444444393</v>
       </c>
       <c r="AB10">
-        <v>25.464285714285701</v>
+        <v>23.4166666666666</v>
       </c>
       <c r="AC10">
-        <v>12.4722222222222</v>
+        <v>16.4722222222222</v>
       </c>
     </row>
     <row r="11" spans="1:29">
       <c r="A11">
-        <v>47</v>
+        <v>26.523809523809501</v>
       </c>
       <c r="B11">
-        <v>-3.1111111111111098</v>
+        <v>19.1111111111111</v>
       </c>
       <c r="D11">
-        <v>12.202380952380899</v>
+        <v>45.273809523809497</v>
       </c>
       <c r="E11">
-        <v>35.1944444444444</v>
+        <v>-0.52777777777777701</v>
       </c>
       <c r="G11">
-        <v>27.202380952380899</v>
+        <v>40.154761904761898</v>
       </c>
       <c r="H11">
-        <v>19.0833333333333</v>
+        <v>2.63888888888888</v>
       </c>
       <c r="J11">
-        <v>49.809523809523803</v>
+        <v>36.130952380952301</v>
       </c>
       <c r="K11">
-        <v>-8.4444444444444393</v>
+        <v>9.5833333333333304</v>
       </c>
       <c r="M11">
-        <v>35.404761904761898</v>
+        <v>17.761904761904699</v>
       </c>
       <c r="N11">
-        <v>8.8333333333333304</v>
+        <v>26.1111111111111</v>
       </c>
       <c r="P11">
-        <v>37.619047619047599</v>
+        <v>29.619047619047599</v>
       </c>
       <c r="Q11">
-        <v>5.7777777777777697</v>
+        <v>13.8888888888888</v>
       </c>
       <c r="S11">
-        <v>35.952380952380899</v>
+        <v>37.702380952380899</v>
       </c>
       <c r="T11">
-        <v>8.3333333333333304</v>
+        <v>6.25</v>
       </c>
       <c r="V11">
-        <v>39</v>
+        <v>55.321428571428498</v>
       </c>
       <c r="W11">
-        <v>4.55555555555555</v>
+        <v>-12.3055555555555</v>
       </c>
       <c r="Y11">
-        <v>53.285714285714199</v>
+        <v>50.654761904761898</v>
       </c>
       <c r="Z11">
-        <v>-9.4444444444444393</v>
+        <v>-7.75</v>
       </c>
       <c r="AB11">
-        <v>28.1428571428571</v>
+        <v>28.5833333333333</v>
       </c>
       <c r="AC11">
-        <v>16.2222222222222</v>
+        <v>15.6388888888888</v>
       </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12">
-        <v>50.809523809523803</v>
+        <v>31.238095238095202</v>
       </c>
       <c r="B12">
-        <v>-4.4444444444444402</v>
+        <v>19.4444444444444</v>
       </c>
       <c r="D12">
-        <v>13.6428571428571</v>
+        <v>49.869047619047599</v>
       </c>
       <c r="E12">
-        <v>38.2777777777777</v>
+        <v>0.30555555555555503</v>
       </c>
       <c r="G12">
-        <v>29.785714285714199</v>
+        <v>46.309523809523803</v>
       </c>
       <c r="H12">
-        <v>21.0555555555555</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="J12">
-        <v>54.488095238095198</v>
+        <v>42.071428571428498</v>
       </c>
       <c r="K12">
-        <v>-10.25</v>
+        <v>8.2777777777777697</v>
       </c>
       <c r="M12">
-        <v>38.785714285714199</v>
+        <v>24.178571428571399</v>
       </c>
       <c r="N12">
-        <v>10.2777777777777</v>
+        <v>23.8055555555555</v>
       </c>
       <c r="P12">
-        <v>40.630952380952301</v>
+        <v>35.773809523809497</v>
       </c>
       <c r="Q12">
-        <v>4.4166666666666599</v>
+        <v>12.3055555555555</v>
       </c>
       <c r="S12">
-        <v>41.607142857142797</v>
+        <v>44.297619047619001</v>
       </c>
       <c r="T12">
-        <v>9.5833333333333304</v>
+        <v>4.30555555555555</v>
       </c>
       <c r="V12">
-        <v>45.130952380952301</v>
+        <v>59.190476190476097</v>
       </c>
       <c r="W12">
-        <v>3.80555555555555</v>
+        <v>-11.5555555555555</v>
       </c>
       <c r="Y12">
-        <v>59.940476190476097</v>
+        <v>57.845238095238003</v>
       </c>
       <c r="Z12">
-        <v>-10.5277777777777</v>
+        <v>-9.8611111111111107</v>
       </c>
       <c r="AB12">
-        <v>32.25</v>
+        <v>34.559523809523803</v>
       </c>
       <c r="AC12">
-        <v>17.1944444444444</v>
+        <v>13.5833333333333</v>
       </c>
     </row>
     <row r="13" spans="1:29">
       <c r="A13">
-        <v>55.119047619047599</v>
+        <v>33.75</v>
       </c>
       <c r="B13">
-        <v>-4.2777777777777697</v>
+        <v>20.8055555555555</v>
       </c>
       <c r="D13">
-        <v>16.928571428571399</v>
+        <v>52.464285714285701</v>
       </c>
       <c r="E13">
-        <v>38.3888888888888</v>
+        <v>6.4722222222222197</v>
       </c>
       <c r="G13">
-        <v>30.988095238095202</v>
+        <v>52.869047619047599</v>
       </c>
       <c r="H13">
-        <v>24.25</v>
+        <v>-1.4722222222222201</v>
       </c>
       <c r="J13">
-        <v>59.535714285714199</v>
+        <v>47.785714285714199</v>
       </c>
       <c r="K13">
-        <v>-11.9166666666666</v>
+        <v>6.5</v>
       </c>
       <c r="M13">
-        <v>42.761904761904702</v>
+        <v>30.202380952380899</v>
       </c>
       <c r="N13">
-        <v>12.1111111111111</v>
+        <v>22.75</v>
       </c>
       <c r="P13">
-        <v>46.011904761904702</v>
+        <v>40.857142857142797</v>
       </c>
       <c r="Q13">
-        <v>4.9722222222222197</v>
+        <v>11.8888888888888</v>
       </c>
       <c r="S13">
-        <v>45.678571428571402</v>
+        <v>49.869047619047599</v>
       </c>
       <c r="T13">
-        <v>12.3055555555555</v>
+        <v>3.1944444444444402</v>
       </c>
       <c r="V13">
-        <v>50.547619047619001</v>
+        <v>63.964285714285701</v>
       </c>
       <c r="W13">
-        <v>2.5</v>
+        <v>-11.3611111111111</v>
       </c>
       <c r="Y13">
-        <v>65.607142857142804</v>
+        <v>64.523809523809504</v>
       </c>
       <c r="Z13">
-        <v>-12.75</v>
+        <v>-11.3333333333333</v>
       </c>
       <c r="AB13">
-        <v>35.261904761904702</v>
+        <v>40.035714285714199</v>
       </c>
       <c r="AC13">
-        <v>20.6111111111111</v>
+        <v>12.5833333333333</v>
       </c>
     </row>
     <row r="14" spans="1:29">
       <c r="A14">
-        <v>58.714285714285701</v>
+        <v>37.059523809523803</v>
       </c>
       <c r="B14">
-        <v>-3.6666666666666599</v>
+        <v>22.9722222222222</v>
       </c>
       <c r="D14">
-        <v>21.797619047619001</v>
+        <v>54.452380952380899</v>
       </c>
       <c r="E14">
-        <v>37.6944444444444</v>
+        <v>11.3888888888888</v>
       </c>
       <c r="G14">
-        <v>30.6666666666666</v>
+        <v>58.726190476190403</v>
       </c>
       <c r="H14">
-        <v>29.8888888888888</v>
+        <v>-3.25</v>
       </c>
       <c r="J14">
-        <v>64.607142857142804</v>
+        <v>53.964285714285701</v>
       </c>
       <c r="K14">
-        <v>-11.6388888888888</v>
+        <v>4.6388888888888804</v>
       </c>
       <c r="M14">
-        <v>44.285714285714199</v>
+        <v>37.226190476190403</v>
       </c>
       <c r="N14">
-        <v>15.4444444444444</v>
+        <v>21.6944444444444</v>
       </c>
       <c r="P14">
-        <v>50.5833333333333</v>
+        <v>46.785714285714199</v>
       </c>
       <c r="Q14">
-        <v>6.8611111111111098</v>
+        <v>11.2777777777777</v>
       </c>
       <c r="S14">
-        <v>46.297619047619001</v>
+        <v>54.630952380952301</v>
       </c>
       <c r="T14">
-        <v>18.8611111111111</v>
+        <v>3.75</v>
       </c>
       <c r="V14">
-        <v>55.642857142857103</v>
+        <v>69.011904761904702</v>
       </c>
       <c r="W14">
-        <v>1.8333333333333299</v>
+        <v>-11.5833333333333</v>
       </c>
       <c r="Y14">
-        <v>71.857142857142804</v>
+        <v>70.821428571428498</v>
       </c>
       <c r="Z14">
-        <v>-14.4444444444444</v>
+        <v>-13.4722222222222</v>
       </c>
       <c r="AB14">
-        <v>37.797619047619001</v>
+        <v>46.261904761904702</v>
       </c>
       <c r="AC14">
-        <v>24.3611111111111</v>
+        <v>11.2777777777777</v>
       </c>
     </row>
     <row r="15" spans="1:29">
       <c r="A15">
-        <v>62.071428571428498</v>
+        <v>40.619047619047599</v>
       </c>
       <c r="B15">
-        <v>-2.5</v>
+        <v>24.7777777777777</v>
       </c>
       <c r="D15">
-        <v>26.940476190476101</v>
+        <v>53.988095238095198</v>
       </c>
       <c r="E15">
-        <v>36.9166666666666</v>
+        <v>18.0277777777777</v>
       </c>
       <c r="G15">
-        <v>31.9761904761904</v>
+        <v>65.0833333333333</v>
       </c>
       <c r="H15">
-        <v>33.1666666666666</v>
+        <v>-4.5277777777777697</v>
       </c>
       <c r="J15">
-        <v>70.119047619047606</v>
+        <v>61.4166666666666</v>
       </c>
       <c r="K15">
-        <v>-11.6111111111111</v>
+        <v>2.6944444444444402</v>
       </c>
       <c r="M15">
-        <v>44.428571428571402</v>
+        <v>43.357142857142797</v>
       </c>
       <c r="N15">
-        <v>22.1111111111111</v>
+        <v>20.0555555555555</v>
       </c>
       <c r="P15">
-        <v>54.9166666666666</v>
+        <v>53.1666666666666</v>
       </c>
       <c r="Q15">
-        <v>6.1944444444444402</v>
+        <v>10.5</v>
       </c>
       <c r="S15">
-        <v>47.773809523809497</v>
+        <v>58.8333333333333</v>
       </c>
       <c r="T15">
-        <v>22.5277777777777</v>
+        <v>2.8333333333333299</v>
       </c>
       <c r="V15">
-        <v>61.404761904761898</v>
+        <v>73.428571428571402</v>
       </c>
       <c r="W15">
-        <v>2.8333333333333299</v>
+        <v>-13</v>
       </c>
       <c r="Y15">
-        <v>77.261904761904702</v>
+        <v>77.273809523809504</v>
       </c>
       <c r="Z15">
-        <v>-16.2777777777777</v>
+        <v>-14.8611111111111</v>
       </c>
       <c r="AB15">
-        <v>38.178571428571402</v>
+        <v>51.142857142857103</v>
       </c>
       <c r="AC15">
-        <v>29.3611111111111</v>
+        <v>10.7777777777777</v>
       </c>
     </row>
     <row r="16" spans="1:29">
       <c r="A16">
-        <v>65.595238095238102</v>
+        <v>42.892857142857103</v>
       </c>
       <c r="B16">
-        <v>-1.05555555555555</v>
+        <v>28.4722222222222</v>
       </c>
       <c r="D16">
-        <v>32.595238095238003</v>
+        <v>54.261904761904702</v>
       </c>
       <c r="E16">
-        <v>35.8333333333333</v>
+        <v>21.5</v>
       </c>
       <c r="G16">
-        <v>34.25</v>
+        <v>72.107142857142804</v>
       </c>
       <c r="H16">
-        <v>35.6388888888888</v>
+        <v>-5.6944444444444402</v>
       </c>
       <c r="J16">
-        <v>75.547619047618994</v>
+        <v>69.130952380952294</v>
       </c>
       <c r="K16">
-        <v>-10.6111111111111</v>
+        <v>1.5833333333333299</v>
       </c>
       <c r="M16">
-        <v>42.892857142857103</v>
+        <v>49.380952380952301</v>
       </c>
       <c r="N16">
-        <v>29.3611111111111</v>
+        <v>18.3333333333333</v>
       </c>
       <c r="P16">
-        <v>59.654761904761898</v>
+        <v>60.047619047619001</v>
       </c>
       <c r="Q16">
-        <v>6.6944444444444402</v>
+        <v>9.55555555555555</v>
       </c>
       <c r="S16">
-        <v>48.154761904761898</v>
+        <v>64.238095238095198</v>
       </c>
       <c r="T16">
-        <v>26.1944444444444</v>
+        <v>1.1111111111111101</v>
       </c>
       <c r="V16">
-        <v>67.821428571428498</v>
+        <v>78.452380952380906</v>
       </c>
       <c r="W16">
-        <v>1.0833333333333299</v>
+        <v>-12.8333333333333</v>
       </c>
       <c r="Y16">
-        <v>84.119047619047606</v>
+        <v>83.023809523809504</v>
       </c>
       <c r="Z16">
-        <v>-17.0555555555555</v>
+        <v>-15.7222222222222</v>
       </c>
       <c r="AB16">
-        <v>40.178571428571402</v>
+        <v>57.797619047619001</v>
       </c>
       <c r="AC16">
-        <v>32.1388888888888</v>
+        <v>9.6944444444444393</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17">
-        <v>68.690476190476105</v>
+        <v>45.154761904761898</v>
       </c>
       <c r="B17">
-        <v>1.38888888888888</v>
+        <v>33.0833333333333</v>
       </c>
       <c r="D17">
-        <v>39.4166666666666</v>
+        <v>53.369047619047599</v>
       </c>
       <c r="E17">
-        <v>34.5833333333333</v>
+        <v>27.4722222222222</v>
       </c>
       <c r="G17">
-        <v>39.3333333333333</v>
+        <v>78.535714285714207</v>
       </c>
       <c r="H17">
-        <v>35.6666666666666</v>
+        <v>-7.3611111111111098</v>
       </c>
       <c r="J17">
-        <v>80.190476190476105</v>
+        <v>76.238095238095198</v>
       </c>
       <c r="K17">
-        <v>-11</v>
+        <v>-0.11111111111111099</v>
       </c>
       <c r="M17">
-        <v>41.095238095238003</v>
+        <v>55.761904761904702</v>
       </c>
       <c r="N17">
-        <v>34.3333333333333</v>
+        <v>16.1111111111111</v>
       </c>
       <c r="P17">
-        <v>63</v>
+        <v>66.9166666666666</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>7.4166666666666599</v>
       </c>
       <c r="S17">
-        <v>47.726190476190403</v>
+        <v>70.523809523809504</v>
       </c>
       <c r="T17">
-        <v>30.75</v>
+        <v>-0.11111111111111099</v>
       </c>
       <c r="V17">
-        <v>73.226190476190396</v>
+        <v>84.797619047618994</v>
       </c>
       <c r="W17">
-        <v>-0.97222222222222199</v>
+        <v>-12.75</v>
       </c>
       <c r="Y17">
-        <v>91.059523809523796</v>
+        <v>89.190476190476105</v>
       </c>
       <c r="Z17">
-        <v>-18.9166666666666</v>
+        <v>-17.1111111111111</v>
       </c>
       <c r="AB17">
-        <v>42.511904761904702</v>
+        <v>64.4166666666666</v>
       </c>
       <c r="AC17">
-        <v>35.8055555555555</v>
+        <v>9.3611111111111107</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18">
-        <v>73.095238095238102</v>
+        <v>46.154761904761898</v>
       </c>
       <c r="B18">
-        <v>0.22222222222222199</v>
+        <v>36.9722222222222</v>
       </c>
       <c r="D18">
-        <v>45.1666666666666</v>
+        <v>53.595238095238003</v>
       </c>
       <c r="E18">
-        <v>32.3888888888888</v>
+        <v>29.8333333333333</v>
       </c>
       <c r="G18">
-        <v>43.226190476190403</v>
+        <v>84.619047619047606</v>
       </c>
       <c r="H18">
-        <v>34.8055555555555</v>
+        <v>-9.2222222222222197</v>
       </c>
       <c r="J18">
-        <v>86.0833333333333</v>
+        <v>82.642857142857096</v>
       </c>
       <c r="K18">
-        <v>-13.0833333333333</v>
+        <v>-2.38888888888888</v>
       </c>
       <c r="M18">
-        <v>39.285714285714199</v>
+        <v>62.559523809523803</v>
       </c>
       <c r="N18">
-        <v>39.1111111111111</v>
+        <v>13.4722222222222</v>
       </c>
       <c r="P18">
-        <v>66.904761904761898</v>
+        <v>73.702380952380906</v>
       </c>
       <c r="Q18">
-        <v>9.6666666666666607</v>
+        <v>5.6944444444444402</v>
       </c>
       <c r="S18">
-        <v>47.488095238095198</v>
+        <v>75.476190476190396</v>
       </c>
       <c r="T18">
-        <v>36.0833333333333</v>
+        <v>-1.7777777777777699</v>
       </c>
       <c r="V18">
-        <v>79.523809523809504</v>
+        <v>91.130952380952294</v>
       </c>
       <c r="W18">
-        <v>-1.88888888888888</v>
+        <v>-14.4166666666666</v>
       </c>
       <c r="Y18">
-        <v>97.285714285714207</v>
+        <v>95.511904761904702</v>
       </c>
       <c r="Z18">
-        <v>-20.1111111111111</v>
+        <v>-19.5277777777777</v>
       </c>
       <c r="AB18">
-        <v>45.988095238095198</v>
+        <v>69.642857142857096</v>
       </c>
       <c r="AC18">
-        <v>36.3611111111111</v>
+        <v>7.9444444444444402</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19">
-        <v>77.964285714285694</v>
+        <v>45.630952380952301</v>
       </c>
       <c r="B19">
-        <v>0.41666666666666602</v>
+        <v>41.6388888888888</v>
       </c>
       <c r="D19">
-        <v>49.75</v>
+        <v>56.380952380952301</v>
       </c>
       <c r="E19">
-        <v>31.6944444444444</v>
+        <v>30.2222222222222</v>
       </c>
       <c r="G19">
-        <v>48.035714285714199</v>
+        <v>90.857142857142804</v>
       </c>
       <c r="H19">
-        <v>35.0277777777777</v>
+        <v>-10.2222222222222</v>
       </c>
       <c r="J19">
-        <v>91.011904761904702</v>
+        <v>88.857142857142804</v>
       </c>
       <c r="K19">
-        <v>-11.1388888888888</v>
+        <v>-4.4444444444444402</v>
       </c>
       <c r="M19">
-        <v>39.380952380952301</v>
+        <v>69.809523809523796</v>
       </c>
       <c r="N19">
-        <v>43.3333333333333</v>
+        <v>12</v>
       </c>
       <c r="P19">
-        <v>71.678571428571402</v>
+        <v>80.928571428571402</v>
       </c>
       <c r="Q19">
-        <v>8.1944444444444393</v>
+        <v>3.6111111111111098</v>
       </c>
       <c r="S19">
-        <v>48.452380952380899</v>
+        <v>80.607142857142804</v>
       </c>
       <c r="T19">
-        <v>39.2777777777777</v>
+        <v>-2.8611111111111098</v>
       </c>
       <c r="V19">
-        <v>84.488095238095198</v>
+        <v>97.25</v>
       </c>
       <c r="W19">
-        <v>-3.3611111111111098</v>
+        <v>-16.4722222222222</v>
       </c>
       <c r="Y19">
-        <v>103.404761904761</v>
+        <v>101.309523809523</v>
       </c>
       <c r="Z19">
         <v>-21.3888888888888</v>
       </c>
       <c r="AB19">
-        <v>48.107142857142797</v>
+        <v>74.785714285714207</v>
       </c>
       <c r="AC19">
-        <v>38.8611111111111</v>
+        <v>7.6111111111111098</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20">
-        <v>80.607142857142804</v>
+        <v>45.773809523809497</v>
       </c>
       <c r="B20">
-        <v>2.25</v>
+        <v>46.0833333333333</v>
       </c>
       <c r="D20">
-        <v>55.738095238095198</v>
+        <v>59.726190476190403</v>
       </c>
       <c r="E20">
-        <v>31.1666666666666</v>
+        <v>30.4166666666666</v>
       </c>
       <c r="G20">
-        <v>53.5833333333333</v>
+        <v>95.619047619047606</v>
       </c>
       <c r="H20">
-        <v>35.1944444444444</v>
+        <v>-10.5555555555555</v>
       </c>
       <c r="J20">
-        <v>95.369047619047606</v>
+        <v>93.857142857142804</v>
       </c>
       <c r="K20">
-        <v>-8.30555555555555</v>
+        <v>-5.6666666666666599</v>
       </c>
       <c r="M20">
-        <v>41.071428571428498</v>
+        <v>75.880952380952294</v>
       </c>
       <c r="N20">
-        <v>45.7222222222222</v>
+        <v>10.0555555555555</v>
       </c>
       <c r="P20">
-        <v>77.214285714285694</v>
+        <v>87.571428571428498</v>
       </c>
       <c r="Q20">
-        <v>8.05555555555555</v>
+        <v>1.44444444444444</v>
       </c>
       <c r="S20">
-        <v>48.130952380952301</v>
+        <v>85.357142857142804</v>
       </c>
       <c r="T20">
-        <v>41.3611111111111</v>
+        <v>-4.05555555555555</v>
       </c>
       <c r="V20">
-        <v>89.5</v>
+        <v>103.69047619047601</v>
       </c>
       <c r="W20">
-        <v>-3.7222222222222201</v>
+        <v>-17.6111111111111</v>
       </c>
       <c r="Y20">
-        <v>109.54761904761899</v>
+        <v>107.72619047619</v>
       </c>
       <c r="Z20">
-        <v>-22.1666666666666</v>
+        <v>-22.1388888888888</v>
       </c>
       <c r="AB20">
-        <v>50.047619047619001</v>
+        <v>79.845238095238102</v>
       </c>
       <c r="AC20">
-        <v>42.1111111111111</v>
+        <v>7.4722222222222197</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21">
-        <v>85.321428571428498</v>
+        <v>44.214285714285701</v>
       </c>
       <c r="B21">
-        <v>2.5833333333333299</v>
+        <v>52.2777777777777</v>
       </c>
       <c r="D21">
-        <v>61.452380952380899</v>
+        <v>63.726190476190403</v>
       </c>
       <c r="E21">
-        <v>30.3888888888888</v>
+        <v>32.0833333333333</v>
       </c>
       <c r="G21">
-        <v>58.297619047619001</v>
+        <v>100.01190476190401</v>
       </c>
       <c r="H21">
-        <v>34.75</v>
+        <v>-10.9166666666666</v>
       </c>
       <c r="J21">
-        <v>98.619047619047606</v>
+        <v>99.392857142857096</v>
       </c>
       <c r="K21">
-        <v>-5.55555555555555</v>
+        <v>-4.9166666666666599</v>
       </c>
       <c r="M21">
-        <v>42.642857142857103</v>
+        <v>82.488095238095198</v>
       </c>
       <c r="N21">
-        <v>50.7222222222222</v>
+        <v>7.6388888888888804</v>
       </c>
       <c r="P21">
-        <v>80.785714285714207</v>
+        <v>94.1666666666666</v>
       </c>
       <c r="Q21">
-        <v>10.1666666666666</v>
+        <v>-1.05555555555555</v>
       </c>
       <c r="S21">
-        <v>49.214285714285701</v>
+        <v>90.821428571428498</v>
       </c>
       <c r="T21">
-        <v>41.8333333333333</v>
+        <v>-2.3611111111111098</v>
       </c>
       <c r="V21">
-        <v>95.630952380952294</v>
+        <v>109.142857142857</v>
       </c>
       <c r="W21">
-        <v>-3.5833333333333299</v>
+        <v>-19.2222222222222</v>
       </c>
       <c r="Y21">
-        <v>114.78571428571399</v>
+        <v>112.559523809523</v>
       </c>
       <c r="Z21">
-        <v>-22.8333333333333</v>
+        <v>-21.9722222222222</v>
       </c>
       <c r="AB21">
-        <v>53.297619047619001</v>
+        <v>84.869047619047606</v>
       </c>
       <c r="AC21">
-        <v>43.6388888888888</v>
+        <v>6.8611111111111098</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22">
-        <v>89.452380952380906</v>
+        <v>43.488095238095198</v>
       </c>
       <c r="B22">
-        <v>4.6111111111111098</v>
+        <v>55.3055555555555</v>
       </c>
       <c r="D22">
-        <v>67.702380952380906</v>
+        <v>68.5833333333333</v>
       </c>
       <c r="E22">
-        <v>30.4722222222222</v>
+        <v>32.75</v>
       </c>
       <c r="G22">
-        <v>63.440476190476097</v>
+        <v>104.53571428571399</v>
       </c>
       <c r="H22">
-        <v>36.8611111111111</v>
+        <v>-11.8055555555555</v>
       </c>
       <c r="J22">
-        <v>102.071428571428</v>
+        <v>103.94047619047601</v>
       </c>
       <c r="K22">
-        <v>-0.94444444444444398</v>
+        <v>-5.1944444444444402</v>
       </c>
       <c r="M22">
-        <v>42.773809523809497</v>
+        <v>88.154761904761898</v>
       </c>
       <c r="N22">
-        <v>54.8611111111111</v>
+        <v>5.1944444444444402</v>
       </c>
       <c r="P22">
-        <v>84.880952380952294</v>
+        <v>100.988095238095</v>
       </c>
       <c r="Q22">
-        <v>12.6111111111111</v>
+        <v>-3.30555555555555</v>
       </c>
       <c r="S22">
-        <v>52.404761904761898</v>
+        <v>94.738095238095198</v>
       </c>
       <c r="T22">
-        <v>42.3888888888888</v>
+        <v>-0.72222222222222199</v>
       </c>
       <c r="V22">
-        <v>100.02380952380901</v>
+        <v>114.738095238095</v>
       </c>
       <c r="W22">
-        <v>-4.1666666666666599</v>
+        <v>-19.0555555555555</v>
       </c>
       <c r="Y22">
-        <v>120.571428571428</v>
+        <v>116.119047619047</v>
       </c>
       <c r="Z22">
-        <v>-24.7777777777777</v>
+        <v>-22.5</v>
       </c>
       <c r="AB22">
-        <v>55.273809523809497</v>
+        <v>87.892857142857096</v>
       </c>
       <c r="AC22">
-        <v>46.5833333333333</v>
+        <v>9.4722222222222197</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23">
-        <v>91.845238095238102</v>
+        <v>44.011904761904702</v>
       </c>
       <c r="B23">
-        <v>6.9166666666666599</v>
+        <v>59.9722222222222</v>
       </c>
       <c r="D23">
-        <v>72.928571428571402</v>
+        <v>73.392857142857096</v>
       </c>
       <c r="E23">
-        <v>28.7222222222222</v>
+        <v>32.5277777777777</v>
       </c>
       <c r="G23">
-        <v>69.392857142857096</v>
+        <v>109.892857142857</v>
       </c>
       <c r="H23">
-        <v>36.5277777777777</v>
+        <v>-12.3055555555555</v>
       </c>
       <c r="J23">
-        <v>104.95238095238</v>
+        <v>106.714285714285</v>
       </c>
       <c r="K23">
-        <v>0.88888888888888795</v>
+        <v>-6</v>
       </c>
       <c r="M23">
-        <v>45.607142857142797</v>
+        <v>94.321428571428498</v>
       </c>
       <c r="N23">
-        <v>59.3611111111111</v>
+        <v>4.3611111111111098</v>
       </c>
       <c r="P23">
-        <v>89.380952380952294</v>
+        <v>106.559523809523</v>
       </c>
       <c r="Q23">
-        <v>11.8888888888888</v>
+        <v>-4.8611111111111098</v>
       </c>
       <c r="S23">
-        <v>57.1666666666666</v>
+        <v>98.952380952380906</v>
       </c>
       <c r="T23">
-        <v>43.1666666666666</v>
+        <v>-0.44444444444444398</v>
       </c>
       <c r="V23">
-        <v>106.26190476190401</v>
+        <v>120.928571428571</v>
       </c>
       <c r="W23">
-        <v>-4.3888888888888804</v>
+        <v>-20.8333333333333</v>
       </c>
       <c r="Y23">
-        <v>126.880952380952</v>
+        <v>117.892857142857</v>
       </c>
       <c r="Z23">
-        <v>-26.8333333333333</v>
+        <v>-19.75</v>
       </c>
       <c r="AB23">
-        <v>57.476190476190403</v>
+        <v>89.940476190476105</v>
       </c>
       <c r="AC23">
-        <v>48.4444444444444</v>
+        <v>13.4722222222222</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24">
-        <v>94.178571428571402</v>
+        <v>43.392857142857103</v>
       </c>
       <c r="B24">
-        <v>10.1388888888888</v>
+        <v>65.4166666666666</v>
       </c>
       <c r="D24">
-        <v>79.690476190476105</v>
+        <v>77.559523809523796</v>
       </c>
       <c r="E24">
-        <v>26.9444444444444</v>
+        <v>32.3611111111111</v>
       </c>
       <c r="G24">
-        <v>74.523809523809504</v>
+        <v>115.97619047619</v>
       </c>
       <c r="H24">
-        <v>35.1111111111111</v>
+        <v>-13.2777777777777</v>
       </c>
       <c r="J24">
-        <v>107.29761904761899</v>
+        <v>109.85714285714199</v>
       </c>
       <c r="K24">
-        <v>5.75</v>
+        <v>-4.7777777777777697</v>
       </c>
       <c r="M24">
-        <v>45.202380952380899</v>
+        <v>99.976190476190396</v>
       </c>
       <c r="N24">
-        <v>62.75</v>
+        <v>5.05555555555555</v>
       </c>
       <c r="P24">
-        <v>94.642857142857096</v>
+        <v>112.22619047619</v>
       </c>
       <c r="Q24">
-        <v>12.8333333333333</v>
+        <v>-5.75</v>
       </c>
       <c r="S24">
-        <v>60.011904761904702</v>
+        <v>102.892857142857</v>
       </c>
       <c r="T24">
-        <v>43.3055555555555</v>
+        <v>-8.3333333333333301E-2</v>
       </c>
       <c r="V24">
-        <v>111.595238095238</v>
+        <v>126.130952380952</v>
       </c>
       <c r="W24">
-        <v>-5.3888888888888804</v>
+        <v>-21.5277777777777</v>
       </c>
       <c r="Y24">
-        <v>132.38095238095201</v>
+        <v>120.51190476190401</v>
       </c>
       <c r="Z24">
-        <v>-28.3333333333333</v>
+        <v>-17.6388888888888</v>
       </c>
       <c r="AB24">
-        <v>60.964285714285701</v>
+        <v>91.404761904761898</v>
       </c>
       <c r="AC24">
-        <v>49.3055555555555</v>
+        <v>18.8333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25">
-        <v>96.273809523809504</v>
+        <v>43.5</v>
       </c>
       <c r="B25">
-        <v>11.9166666666666</v>
+        <v>67.6111111111111</v>
       </c>
       <c r="D25">
-        <v>85.095238095238102</v>
+        <v>82.309523809523796</v>
       </c>
       <c r="E25">
-        <v>26.8888888888888</v>
+        <v>32.9444444444444</v>
       </c>
       <c r="G25">
-        <v>79.428571428571402</v>
+        <v>120.44047619047601</v>
       </c>
       <c r="H25">
-        <v>33.2222222222222</v>
+        <v>-13.4722222222222</v>
       </c>
       <c r="J25">
-        <v>110.642857142857</v>
+        <v>112.464285714285</v>
       </c>
       <c r="K25">
-        <v>8.8333333333333304</v>
+        <v>-2.75</v>
       </c>
       <c r="M25">
-        <v>44.261904761904702</v>
+        <v>104.571428571428</v>
       </c>
       <c r="N25">
-        <v>69.7222222222222</v>
+        <v>5.1111111111111098</v>
       </c>
       <c r="P25">
-        <v>99.238095238095198</v>
+        <v>119.53571428571399</v>
       </c>
       <c r="Q25">
-        <v>12.3333333333333</v>
+        <v>-6.0277777777777697</v>
       </c>
       <c r="S25">
-        <v>65.309523809523796</v>
+        <v>109.119047619047</v>
       </c>
       <c r="T25">
-        <v>42.1666666666666</v>
+        <v>-0.38888888888888801</v>
       </c>
       <c r="V25">
-        <v>114.964285714285</v>
+        <v>130.60714285714201</v>
       </c>
       <c r="W25">
-        <v>-2.9166666666666599</v>
+        <v>-22.4166666666666</v>
       </c>
       <c r="Y25">
-        <v>138.27380952380901</v>
+        <v>121.238095238095</v>
       </c>
       <c r="Z25">
-        <v>-30.3055555555555</v>
+        <v>-12.2222222222222</v>
       </c>
       <c r="AB25">
-        <v>63.380952380952301</v>
+        <v>92.1666666666666</v>
       </c>
       <c r="AC25">
-        <v>52.6666666666666</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26">
-        <v>98.630952380952294</v>
+        <v>46.678571428571402</v>
       </c>
       <c r="B26">
-        <v>13.9722222222222</v>
+        <v>69.9722222222222</v>
       </c>
       <c r="D26">
-        <v>89.845238095238102</v>
+        <v>88.095238095238102</v>
       </c>
       <c r="E26">
-        <v>24.8055555555555</v>
+        <v>33.7777777777777</v>
       </c>
       <c r="G26">
-        <v>84.059523809523796</v>
+        <v>125.309523809523</v>
       </c>
       <c r="H26">
-        <v>34.4166666666666</v>
+        <v>-13.9444444444444</v>
       </c>
       <c r="J26">
-        <v>112.119047619047</v>
+        <v>116.178571428571</v>
       </c>
       <c r="K26">
-        <v>9.5</v>
+        <v>-2.30555555555555</v>
       </c>
       <c r="M26">
-        <v>42.607142857142797</v>
+        <v>109.26190476190401</v>
       </c>
       <c r="N26">
-        <v>77.6944444444444</v>
+        <v>5.9444444444444402</v>
       </c>
       <c r="P26">
-        <v>104.392857142857</v>
+        <v>123</v>
       </c>
       <c r="Q26">
-        <v>13.3055555555555</v>
+        <v>-5.3333333333333304</v>
       </c>
       <c r="S26">
-        <v>70.071428571428498</v>
+        <v>113.345238095238</v>
       </c>
       <c r="T26">
-        <v>42.1666666666666</v>
+        <v>0.41666666666666602</v>
       </c>
       <c r="V26">
-        <v>119.214285714285</v>
+        <v>133.77380952380901</v>
       </c>
       <c r="W26">
-        <v>0.94444444444444398</v>
+        <v>-19.25</v>
       </c>
       <c r="Y26">
-        <v>144.20238095238</v>
+        <v>122.02380952380901</v>
       </c>
       <c r="Z26">
-        <v>-31.4722222222222</v>
+        <v>-8.6111111111111107</v>
       </c>
       <c r="AB26">
-        <v>62.8333333333333</v>
+        <v>94.071428571428498</v>
       </c>
       <c r="AC26">
-        <v>56.1666666666666</v>
+        <v>26.2777777777777</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27">
-        <v>101.083333333333</v>
+        <v>51.25</v>
       </c>
       <c r="B27">
-        <v>16.1388888888888</v>
+        <v>71.6388888888888</v>
       </c>
       <c r="D27">
-        <v>95.785714285714207</v>
+        <v>91.857142857142804</v>
       </c>
       <c r="E27">
-        <v>24.8333333333333</v>
+        <v>34.7777777777777</v>
       </c>
       <c r="G27">
-        <v>89.511904761904702</v>
+        <v>129.28571428571399</v>
       </c>
       <c r="H27">
-        <v>34.0277777777777</v>
+        <v>-12</v>
       </c>
       <c r="J27">
-        <v>114.26190476190401</v>
+        <v>122.059523809523</v>
       </c>
       <c r="K27">
-        <v>11.1666666666666</v>
+        <v>-3.6944444444444402</v>
       </c>
       <c r="M27">
-        <v>41.0833333333333</v>
+        <v>113.02380952380901</v>
       </c>
       <c r="N27">
-        <v>86.3611111111111</v>
+        <v>7.05555555555555</v>
       </c>
       <c r="P27">
-        <v>109.738095238095</v>
+        <v>124.559523809523</v>
       </c>
       <c r="Q27">
-        <v>14.1666666666666</v>
+        <v>-1.4166666666666601</v>
       </c>
       <c r="S27">
-        <v>75.071428571428498</v>
+        <v>116.404761904761</v>
       </c>
       <c r="T27">
-        <v>41.8333333333333</v>
+        <v>3.38888888888888</v>
       </c>
       <c r="V27">
-        <v>121.154761904761</v>
+        <v>137.09523809523799</v>
       </c>
       <c r="W27">
-        <v>3.4166666666666599</v>
+        <v>-17.1111111111111</v>
       </c>
       <c r="Y27">
-        <v>148.42857142857099</v>
+        <v>122.869047619047</v>
       </c>
       <c r="Z27">
-        <v>-30.3333333333333</v>
+        <v>-3.4722222222222201</v>
       </c>
       <c r="AB27">
-        <v>61.607142857142797</v>
+        <v>94.369047619047606</v>
       </c>
       <c r="AC27">
-        <v>63.3611111111111</v>
+        <v>31.5833333333333</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28">
-        <v>104.51190476190401</v>
+        <v>56.357142857142797</v>
       </c>
       <c r="B28">
-        <v>17.9166666666666</v>
+        <v>70.5</v>
       </c>
       <c r="D28">
-        <v>100.630952380952</v>
+        <v>95.654761904761898</v>
       </c>
       <c r="E28">
-        <v>25.75</v>
+        <v>35.3611111111111</v>
       </c>
       <c r="G28">
-        <v>95.964285714285694</v>
+        <v>134.619047619047</v>
       </c>
       <c r="H28">
-        <v>32.5277777777777</v>
+        <v>-12.1111111111111</v>
       </c>
       <c r="J28">
-        <v>117.738095238095</v>
+        <v>128.38095238095201</v>
       </c>
       <c r="K28">
-        <v>13.6111111111111</v>
+        <v>-5.55555555555555</v>
       </c>
       <c r="M28">
-        <v>39.25</v>
+        <v>116.69047619047601</v>
       </c>
       <c r="N28">
-        <v>89.9722222222222</v>
+        <v>9.2777777777777697</v>
       </c>
       <c r="P28">
-        <v>114.27380952380901</v>
+        <v>126.845238095238</v>
       </c>
       <c r="Q28">
-        <v>13.5833333333333</v>
+        <v>0.47222222222222199</v>
       </c>
       <c r="S28">
-        <v>79.714285714285694</v>
+        <v>118.321428571428</v>
       </c>
       <c r="T28">
-        <v>42.2222222222222</v>
+        <v>6.5833333333333304</v>
       </c>
       <c r="V28">
-        <v>124.60714285714199</v>
+        <v>141.25</v>
       </c>
       <c r="W28">
-        <v>5.0277777777777697</v>
+        <v>-16.3611111111111</v>
       </c>
       <c r="Y28">
-        <v>153.23809523809501</v>
+        <v>121.53571428571399</v>
       </c>
       <c r="Z28">
-        <v>-27.5555555555555</v>
+        <v>1.9722222222222201</v>
       </c>
       <c r="AB28">
-        <v>61.023809523809497</v>
+        <v>92.940476190476105</v>
       </c>
       <c r="AC28">
-        <v>68.9444444444444</v>
+        <v>38.8055555555555</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29">
-        <v>107.72619047619</v>
+        <v>60.464285714285701</v>
       </c>
       <c r="B29">
-        <v>19.4166666666666</v>
+        <v>69.9166666666666</v>
       </c>
       <c r="D29">
-        <v>103.51190476190401</v>
+        <v>99.928571428571402</v>
       </c>
       <c r="E29">
-        <v>28.0277777777777</v>
+        <v>35.5</v>
       </c>
       <c r="G29">
-        <v>102.78571428571399</v>
+        <v>136.34523809523799</v>
       </c>
       <c r="H29">
-        <v>30.7222222222222</v>
+        <v>-9.3611111111111107</v>
       </c>
       <c r="J29">
-        <v>120.869047619047</v>
+        <v>134.38095238095201</v>
       </c>
       <c r="K29">
-        <v>14.3055555555555</v>
+        <v>-6.8888888888888804</v>
       </c>
       <c r="M29">
-        <v>39.190476190476097</v>
+        <v>119.654761904761</v>
       </c>
       <c r="N29">
-        <v>94.7777777777777</v>
+        <v>12.25</v>
       </c>
       <c r="P29">
-        <v>121.19047619047601</v>
+        <v>127.714285714285</v>
       </c>
       <c r="Q29">
-        <v>12.3333333333333</v>
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>85.797619047618994</v>
+        <v>119.20238095238</v>
       </c>
       <c r="T29">
-        <v>41.4722222222222</v>
+        <v>8.6388888888888893</v>
       </c>
       <c r="V29">
-        <v>128.03571428571399</v>
+        <v>146.166666666666</v>
       </c>
       <c r="W29">
-        <v>6.25</v>
+        <v>-15.0555555555555</v>
       </c>
       <c r="Y29">
-        <v>157.309523809523</v>
+        <v>120.51190476190401</v>
       </c>
       <c r="Z29">
-        <v>-24.8333333333333</v>
+        <v>5.25</v>
       </c>
       <c r="AB29">
-        <v>61.214285714285701</v>
+        <v>91.464285714285694</v>
       </c>
       <c r="AC29">
-        <v>73.8333333333333</v>
+        <v>45.1388888888888</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30">
-        <v>111.54761904761899</v>
+        <v>65.392857142857096</v>
       </c>
       <c r="B30">
-        <v>20.2777777777777</v>
+        <v>71.0833333333333</v>
       </c>
       <c r="D30">
-        <v>106.095238095238</v>
+        <v>103.60714285714199</v>
       </c>
       <c r="E30">
-        <v>30.4444444444444</v>
+        <v>36.4722222222222</v>
       </c>
       <c r="G30">
-        <v>108.51190476190401</v>
+        <v>138.72619047619</v>
       </c>
       <c r="H30">
-        <v>28.8055555555555</v>
+        <v>-5.6944444444444402</v>
       </c>
       <c r="J30">
-        <v>123.904761904761</v>
+        <v>139.88095238095201</v>
       </c>
       <c r="K30">
-        <v>14</v>
+        <v>-7.05555555555555</v>
       </c>
       <c r="M30">
-        <v>41.345238095238003</v>
+        <v>120.97619047619</v>
       </c>
       <c r="N30">
-        <v>97.4166666666666</v>
+        <v>18.7222222222222</v>
       </c>
       <c r="P30">
-        <v>127.392857142857</v>
+        <v>130.20238095238</v>
       </c>
       <c r="Q30">
-        <v>10.8611111111111</v>
+        <v>6.0833333333333304</v>
       </c>
       <c r="S30">
-        <v>89.761904761904702</v>
+        <v>120.654761904761</v>
       </c>
       <c r="T30">
-        <v>42.3333333333333</v>
+        <v>13.4722222222222</v>
       </c>
       <c r="V30">
-        <v>130.53571428571399</v>
+        <v>151.85714285714201</v>
       </c>
       <c r="W30">
-        <v>7.30555555555555</v>
+        <v>-15.6666666666666</v>
       </c>
       <c r="Y30">
-        <v>160.333333333333</v>
+        <v>119.309523809523</v>
       </c>
       <c r="Z30">
-        <v>-20.4444444444444</v>
+        <v>12.2777777777777</v>
       </c>
       <c r="AB30">
-        <v>62.452380952380899</v>
+        <v>89</v>
       </c>
       <c r="AC30">
-        <v>77.3888888888888</v>
+        <v>51.2222222222222</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31">
-        <v>117.19047619047601</v>
+        <v>69.095238095238102</v>
       </c>
       <c r="B31">
-        <v>20.3333333333333</v>
+        <v>72.2222222222222</v>
       </c>
       <c r="D31">
-        <v>107.666666666666</v>
+        <v>106.583333333333</v>
       </c>
       <c r="E31">
-        <v>34.3333333333333</v>
+        <v>39.4166666666666</v>
       </c>
       <c r="G31">
-        <v>114.10714285714199</v>
+        <v>139.40476190476099</v>
       </c>
       <c r="H31">
-        <v>28.9722222222222</v>
+        <v>-0.5</v>
       </c>
       <c r="J31">
-        <v>128.53571428571399</v>
+        <v>143.65476190476099</v>
       </c>
       <c r="K31">
-        <v>14.75</v>
+        <v>-7.0833333333333304</v>
       </c>
       <c r="M31">
-        <v>46.178571428571402</v>
+        <v>122.642857142857</v>
       </c>
       <c r="N31">
-        <v>98.25</v>
+        <v>20.5</v>
       </c>
       <c r="P31">
-        <v>133.809523809523</v>
+        <v>133.619047619047</v>
       </c>
       <c r="Q31">
-        <v>9.55555555555555</v>
+        <v>7</v>
       </c>
       <c r="S31">
-        <v>94.035714285714207</v>
+        <v>121.559523809523</v>
       </c>
       <c r="T31">
-        <v>42.3611111111111</v>
+        <v>19.3611111111111</v>
       </c>
       <c r="V31">
-        <v>134.88095238095201</v>
+        <v>156.44047619047601</v>
       </c>
       <c r="W31">
-        <v>9.05555555555555</v>
+        <v>-14.6944444444444</v>
       </c>
       <c r="Y31">
-        <v>163.77380952380901</v>
+        <v>117.77380952380901</v>
       </c>
       <c r="Z31">
-        <v>-16.8055555555555</v>
+        <v>15.4166666666666</v>
       </c>
       <c r="AB31">
-        <v>63.75</v>
+        <v>86.642857142857096</v>
       </c>
       <c r="AC31">
-        <v>82.0277777777777</v>
+        <v>55.8333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32">
-        <v>122.03571428571399</v>
+        <v>74.202380952380906</v>
       </c>
       <c r="B32">
-        <v>19.25</v>
+        <v>72.9722222222222</v>
       </c>
       <c r="D32">
-        <v>107.678571428571</v>
+        <v>108.25</v>
       </c>
       <c r="E32">
-        <v>38.9722222222222</v>
+        <v>41.75</v>
       </c>
       <c r="G32">
-        <v>119.809523809523</v>
+        <v>142.38095238095201</v>
       </c>
       <c r="H32">
-        <v>27.6666666666666</v>
+        <v>1.55555555555555</v>
       </c>
       <c r="J32">
-        <v>133</v>
+        <v>148.22619047619</v>
       </c>
       <c r="K32">
-        <v>15.1111111111111</v>
+        <v>-6.8611111111111098</v>
       </c>
       <c r="M32">
-        <v>49.9166666666666</v>
+        <v>125.26190476190401</v>
       </c>
       <c r="N32">
-        <v>99.0833333333333</v>
+        <v>22.1666666666666</v>
       </c>
       <c r="P32">
-        <v>139.5</v>
+        <v>136.82142857142799</v>
       </c>
       <c r="Q32">
-        <v>8.8333333333333304</v>
+        <v>8.0833333333333304</v>
       </c>
       <c r="S32">
-        <v>98.4166666666666</v>
+        <v>120.72619047619</v>
       </c>
       <c r="T32">
-        <v>41.9166666666666</v>
+        <v>25.8611111111111</v>
       </c>
       <c r="V32">
-        <v>139.76190476190399</v>
+        <v>160.92857142857099</v>
       </c>
       <c r="W32">
-        <v>10.1111111111111</v>
+        <v>-14.0555555555555</v>
       </c>
       <c r="Y32">
-        <v>165.32142857142799</v>
+        <v>117.35714285714199</v>
       </c>
       <c r="Z32">
-        <v>-13.1944444444444</v>
+        <v>19.8333333333333</v>
       </c>
       <c r="AB32">
-        <v>65.8333333333333</v>
+        <v>84.892857142857096</v>
       </c>
       <c r="AC32">
-        <v>85.2777777777777</v>
+        <v>61.9166666666666</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33">
-        <v>128.17857142857099</v>
+        <v>76.1666666666666</v>
       </c>
       <c r="B33">
-        <v>19.1388888888888</v>
+        <v>73.6111111111111</v>
       </c>
       <c r="D33">
-        <v>108.95238095238</v>
+        <v>106.869047619047</v>
       </c>
       <c r="E33">
-        <v>41</v>
+        <v>45.75</v>
       </c>
       <c r="G33">
-        <v>126.04761904761899</v>
+        <v>143.892857142857</v>
       </c>
       <c r="H33">
-        <v>26.3333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="J33">
-        <v>137.38095238095201</v>
+        <v>152.51190476190399</v>
       </c>
       <c r="K33">
-        <v>15.5555555555555</v>
+        <v>-5.6388888888888804</v>
       </c>
       <c r="M33">
-        <v>52.523809523809497</v>
+        <v>129.88095238095201</v>
       </c>
       <c r="N33">
-        <v>102.111111111111</v>
+        <v>23.0555555555555</v>
       </c>
       <c r="P33">
-        <v>145.833333333333</v>
+        <v>139.72619047619</v>
       </c>
       <c r="Q33">
-        <v>8.05555555555555</v>
+        <v>10.5277777777777</v>
       </c>
       <c r="S33">
-        <v>104.583333333333</v>
+        <v>120.44047619047601</v>
       </c>
       <c r="T33">
-        <v>42.5277777777777</v>
+        <v>30.9722222222222</v>
       </c>
       <c r="V33">
-        <v>143.95238095238</v>
+        <v>165.34523809523799</v>
       </c>
       <c r="W33">
-        <v>9.55555555555555</v>
+        <v>-14.5833333333333</v>
       </c>
       <c r="Y33">
-        <v>169.09523809523799</v>
+        <v>120.059523809523</v>
       </c>
       <c r="Z33">
-        <v>-10</v>
+        <v>20.9722222222222</v>
       </c>
       <c r="AB33">
-        <v>67.130952380952294</v>
+        <v>86.440476190476105</v>
       </c>
       <c r="AC33">
-        <v>88.8055555555555</v>
+        <v>62.75</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34">
-        <v>133.88095238095201</v>
+        <v>78.607142857142804</v>
       </c>
       <c r="B34">
-        <v>19.6111111111111</v>
+        <v>75.8055555555555</v>
       </c>
       <c r="D34">
-        <v>111.01190476190401</v>
+        <v>105.94047619047601</v>
       </c>
       <c r="E34">
-        <v>44.0833333333333</v>
+        <v>49.5833333333333</v>
       </c>
       <c r="G34">
-        <v>132.92857142857099</v>
+        <v>147.583333333333</v>
       </c>
       <c r="H34">
-        <v>24.6111111111111</v>
+        <v>5.75</v>
       </c>
       <c r="J34">
-        <v>142.09523809523799</v>
+        <v>157.48809523809501</v>
       </c>
       <c r="K34">
-        <v>16.6666666666666</v>
+        <v>-6.5833333333333304</v>
       </c>
       <c r="M34">
-        <v>56.380952380952301</v>
+        <v>132.73809523809501</v>
       </c>
       <c r="N34">
-        <v>102.111111111111</v>
+        <v>26.8333333333333</v>
       </c>
       <c r="P34">
-        <v>150.833333333333</v>
+        <v>143.21428571428501</v>
       </c>
       <c r="Q34">
-        <v>8.3888888888888893</v>
+        <v>10.8333333333333</v>
       </c>
       <c r="S34">
-        <v>109.678571428571</v>
+        <v>120.01190476190401</v>
       </c>
       <c r="T34">
-        <v>41.9722222222222</v>
+        <v>35.9722222222222</v>
       </c>
       <c r="V34">
-        <v>149.75</v>
+        <v>166.69047619047601</v>
       </c>
       <c r="W34">
-        <v>10.1388888888888</v>
+        <v>-12.9444444444444</v>
       </c>
       <c r="Y34">
-        <v>172.44047619047601</v>
+        <v>125.03571428571399</v>
       </c>
       <c r="Z34">
-        <v>-8.25</v>
+        <v>21.4722222222222</v>
       </c>
       <c r="AB34">
-        <v>69.654761904761898</v>
+        <v>90.369047619047606</v>
       </c>
       <c r="AC34">
-        <v>91.4722222222222</v>
+        <v>62.1388888888888</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35">
-        <v>138.01190476190399</v>
+        <v>83.047619047618994</v>
       </c>
       <c r="B35">
-        <v>19.9722222222222</v>
+        <v>75.7777777777777</v>
       </c>
       <c r="D35">
-        <v>110.392857142857</v>
+        <v>107.214285714285</v>
       </c>
       <c r="E35">
-        <v>52.4166666666666</v>
+        <v>52.7222222222222</v>
       </c>
       <c r="G35">
-        <v>138.892857142857</v>
+        <v>150.666666666666</v>
       </c>
       <c r="H35">
-        <v>22.4722222222222</v>
+        <v>7.6666666666666599</v>
       </c>
       <c r="J35">
-        <v>145.416666666666</v>
+        <v>163.22619047619</v>
       </c>
       <c r="K35">
-        <v>16.25</v>
+        <v>-6.30555555555555</v>
       </c>
       <c r="M35">
-        <v>60.476190476190403</v>
+        <v>136.73809523809501</v>
       </c>
       <c r="N35">
-        <v>103.222222222222</v>
+        <v>27.6111111111111</v>
       </c>
       <c r="P35">
-        <v>155.53571428571399</v>
+        <v>145.72619047619</v>
       </c>
       <c r="Q35">
-        <v>8.0833333333333304</v>
+        <v>13.1944444444444</v>
       </c>
       <c r="S35">
-        <v>114.571428571428</v>
+        <v>119.738095238095</v>
       </c>
       <c r="T35">
-        <v>41.2222222222222</v>
+        <v>41.1666666666666</v>
       </c>
       <c r="V35">
-        <v>155.48809523809501</v>
+        <v>166.309523809523</v>
       </c>
       <c r="W35">
-        <v>9.30555555555555</v>
+        <v>-8.05555555555555</v>
       </c>
       <c r="Y35">
-        <v>175.309523809523</v>
+        <v>129.35714285714201</v>
       </c>
       <c r="Z35">
-        <v>-6.2777777777777697</v>
+        <v>22.6111111111111</v>
       </c>
       <c r="AB35">
-        <v>73.238095238095198</v>
+        <v>95.214285714285694</v>
       </c>
       <c r="AC35">
-        <v>93.6666666666666</v>
+        <v>62.2777777777777</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36">
-        <v>143.82142857142799</v>
+        <v>88.226190476190396</v>
       </c>
       <c r="B36">
-        <v>20.4166666666666</v>
+        <v>75.8055555555555</v>
       </c>
       <c r="D36">
-        <v>109.5</v>
+        <v>111.44047619047601</v>
       </c>
       <c r="E36">
-        <v>55.9444444444444</v>
+        <v>53.6388888888888</v>
       </c>
       <c r="G36">
-        <v>145.65476190476099</v>
+        <v>153.20238095238</v>
       </c>
       <c r="H36">
-        <v>20.4722222222222</v>
+        <v>11.0833333333333</v>
       </c>
       <c r="J36">
-        <v>150.42857142857099</v>
+        <v>169.44047619047601</v>
       </c>
       <c r="K36">
-        <v>16</v>
+        <v>-7.4722222222222197</v>
       </c>
       <c r="M36">
-        <v>64.690476190476105</v>
+        <v>139.869047619047</v>
       </c>
       <c r="N36">
-        <v>104.611111111111</v>
+        <v>29.5277777777777</v>
       </c>
       <c r="P36">
-        <v>161.333333333333</v>
+        <v>150.142857142857</v>
       </c>
       <c r="Q36">
-        <v>7.8888888888888804</v>
+        <v>16.1111111111111</v>
       </c>
       <c r="S36">
-        <v>120.178571428571</v>
+        <v>119.928571428571</v>
       </c>
       <c r="T36">
-        <v>41.5833333333333</v>
+        <v>46.5</v>
       </c>
       <c r="V36">
-        <v>160.369047619047</v>
+        <v>167.96428571428501</v>
       </c>
       <c r="W36">
-        <v>8.6944444444444393</v>
+        <v>-4.4722222222222197</v>
       </c>
       <c r="Y36">
-        <v>177.90476190476099</v>
+        <v>132.92857142857099</v>
       </c>
       <c r="Z36">
-        <v>-3.88888888888888</v>
+        <v>23.7222222222222</v>
       </c>
       <c r="AB36">
-        <v>76.488095238095198</v>
+        <v>102.03571428571399</v>
       </c>
       <c r="AC36">
-        <v>94.1944444444444</v>
+        <v>60.8055555555555</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37">
-        <v>148</v>
+        <v>92.940476190476105</v>
       </c>
       <c r="B37">
-        <v>21.7777777777777</v>
+        <v>77.0277777777777</v>
       </c>
       <c r="D37">
-        <v>109</v>
+        <v>113.880952380952</v>
       </c>
       <c r="E37">
-        <v>62.7777777777777</v>
+        <v>57.5</v>
       </c>
       <c r="G37">
-        <v>151.309523809523</v>
+        <v>157.333333333333</v>
       </c>
       <c r="H37">
-        <v>18.9444444444444</v>
+        <v>12.3333333333333</v>
       </c>
       <c r="J37">
-        <v>154.67857142857099</v>
+        <v>175.10714285714201</v>
       </c>
       <c r="K37">
-        <v>14.4166666666666</v>
+        <v>-8.1388888888888893</v>
       </c>
       <c r="M37">
-        <v>69.904761904761898</v>
+        <v>143.95238095238</v>
       </c>
       <c r="N37">
-        <v>106.666666666666</v>
+        <v>32.3333333333333</v>
       </c>
       <c r="P37">
-        <v>165.44047619047601</v>
+        <v>152.07142857142799</v>
       </c>
       <c r="Q37">
-        <v>8.75</v>
+        <v>19.6111111111111</v>
       </c>
       <c r="S37">
-        <v>124.595238095238</v>
+        <v>123.380952380952</v>
       </c>
       <c r="T37">
-        <v>42.3888888888888</v>
+        <v>47.2222222222222</v>
       </c>
       <c r="V37">
-        <v>165.60714285714201</v>
+        <v>168.95238095238</v>
       </c>
       <c r="W37">
-        <v>8.0277777777777697</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="Y37">
-        <v>181.04761904761901</v>
+        <v>137.01190476190399</v>
       </c>
       <c r="Z37">
-        <v>-1.6666666666666601</v>
+        <v>26.3055555555555</v>
       </c>
       <c r="AB37">
-        <v>78.464285714285694</v>
+        <v>106.833333333333</v>
       </c>
       <c r="AC37">
-        <v>94.9166666666666</v>
+        <v>60.2777777777777</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38">
-        <v>153.083333333333</v>
+        <v>97.321428571428498</v>
       </c>
       <c r="B38">
-        <v>21.5833333333333</v>
+        <v>78.6944444444444</v>
       </c>
       <c r="D38">
-        <v>108.738095238095</v>
+        <v>117.583333333333</v>
       </c>
       <c r="E38">
-        <v>67.5</v>
+        <v>59.1944444444444</v>
       </c>
       <c r="G38">
-        <v>157.51190476190399</v>
+        <v>163.119047619047</v>
       </c>
       <c r="H38">
-        <v>17.8055555555555</v>
+        <v>13.0555555555555</v>
       </c>
       <c r="J38">
-        <v>158.13095238095201</v>
+        <v>180.75</v>
       </c>
       <c r="K38">
-        <v>17.9166666666666</v>
+        <v>-9.75</v>
       </c>
       <c r="M38">
-        <v>73.1666666666666</v>
+        <v>144.10714285714201</v>
       </c>
       <c r="N38">
-        <v>107.611111111111</v>
+        <v>35.6388888888888</v>
       </c>
       <c r="P38">
-        <v>167.27380952380901</v>
+        <v>154.916666666666</v>
       </c>
       <c r="Q38">
-        <v>9.9166666666666607</v>
+        <v>22.4166666666666</v>
       </c>
       <c r="S38">
-        <v>128.166666666666</v>
+        <v>126.166666666666</v>
       </c>
       <c r="T38">
-        <v>41.7222222222222</v>
+        <v>51.0555555555555</v>
       </c>
       <c r="V38">
-        <v>169</v>
+        <v>169.42857142857099</v>
       </c>
       <c r="W38">
-        <v>8.6666666666666607</v>
+        <v>6.7777777777777697</v>
       </c>
       <c r="Y38">
-        <v>185.13095238095201</v>
+        <v>140.21428571428501</v>
       </c>
       <c r="Z38">
-        <v>-0.63888888888888795</v>
+        <v>29.5</v>
       </c>
       <c r="AB38">
-        <v>82.345238095238102</v>
+        <v>112.69047619047601</v>
       </c>
       <c r="AC38">
-        <v>96.6388888888888</v>
+        <v>60.0555555555555</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39">
-        <v>158.619047619047</v>
+        <v>101.095238095238</v>
       </c>
       <c r="B39">
-        <v>20.7777777777777</v>
+        <v>78.1111111111111</v>
       </c>
       <c r="D39">
-        <v>109.619047619047</v>
+        <v>119.559523809523</v>
       </c>
       <c r="E39">
-        <v>71.7777777777777</v>
+        <v>61.6944444444444</v>
       </c>
       <c r="G39">
-        <v>162.63095238095201</v>
+        <v>168.20238095238</v>
       </c>
       <c r="H39">
-        <v>17.0833333333333</v>
+        <v>13.0833333333333</v>
       </c>
       <c r="J39">
-        <v>161.27380952380901</v>
+        <v>184.46428571428501</v>
       </c>
       <c r="K39">
-        <v>22.6944444444444</v>
+        <v>-7.9722222222222197</v>
       </c>
       <c r="M39">
-        <v>77.690476190476105</v>
+        <v>144.63095238095201</v>
       </c>
       <c r="N39">
-        <v>108.055555555555</v>
+        <v>40.1944444444444</v>
       </c>
       <c r="P39">
-        <v>170.09523809523799</v>
+        <v>158.07142857142799</v>
       </c>
       <c r="Q39">
-        <v>10.8888888888888</v>
+        <v>25.3888888888888</v>
       </c>
       <c r="S39">
-        <v>132.09523809523799</v>
+        <v>128.619047619047</v>
       </c>
       <c r="T39">
-        <v>43</v>
+        <v>53.2222222222222</v>
       </c>
       <c r="V39">
-        <v>173.059523809523</v>
+        <v>169.09523809523799</v>
       </c>
       <c r="W39">
-        <v>10.3055555555555</v>
+        <v>11.3333333333333</v>
       </c>
       <c r="Y39">
-        <v>189.559523809523</v>
+        <v>142.46428571428501</v>
       </c>
       <c r="Z39">
-        <v>0.36111111111111099</v>
+        <v>33.5833333333333</v>
       </c>
       <c r="AB39">
-        <v>85.452380952380906</v>
+        <v>117.845238095238</v>
       </c>
       <c r="AC39">
-        <v>95.8333333333333</v>
+        <v>59.1388888888888</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40">
-        <v>164.19047619047601</v>
+        <v>105.666666666666</v>
       </c>
       <c r="B40">
-        <v>21.5555555555555</v>
+        <v>78.3333333333333</v>
       </c>
       <c r="D40">
-        <v>112.72619047619</v>
+        <v>120.44047619047601</v>
       </c>
       <c r="E40">
-        <v>73.3055555555555</v>
+        <v>65.75</v>
       </c>
       <c r="G40">
-        <v>168.119047619047</v>
+        <v>173.42857142857099</v>
       </c>
       <c r="H40">
-        <v>16.7222222222222</v>
+        <v>13.2222222222222</v>
       </c>
       <c r="J40">
-        <v>162.392857142857</v>
+        <v>187.79761904761901</v>
       </c>
       <c r="K40">
-        <v>26.75</v>
+        <v>-7.75</v>
       </c>
       <c r="M40">
-        <v>83.654761904761898</v>
+        <v>144.666666666666</v>
       </c>
       <c r="N40">
-        <v>106.805555555555</v>
+        <v>45.4444444444444</v>
       </c>
       <c r="P40">
-        <v>173.10714285714201</v>
+        <v>160.54761904761901</v>
       </c>
       <c r="Q40">
-        <v>11.6388888888888</v>
+        <v>28.2777777777777</v>
       </c>
       <c r="S40">
-        <v>133.32142857142799</v>
+        <v>129.53571428571399</v>
       </c>
       <c r="T40">
-        <v>44.8055555555555</v>
+        <v>56.0833333333333</v>
       </c>
       <c r="V40">
-        <v>178.85714285714201</v>
+        <v>167</v>
       </c>
       <c r="W40">
-        <v>9.4444444444444393</v>
+        <v>18.8888888888888</v>
       </c>
       <c r="Y40">
-        <v>194.60714285714201</v>
+        <v>142.119047619047</v>
       </c>
       <c r="Z40">
-        <v>0.58333333333333304</v>
+        <v>40.0555555555555</v>
       </c>
       <c r="AB40">
-        <v>88.5833333333333</v>
+        <v>123.488095238095</v>
       </c>
       <c r="AC40">
-        <v>98.9722222222222</v>
+        <v>59.6388888888888</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41">
-        <v>169.35714285714201</v>
+        <v>110.119047619047</v>
       </c>
       <c r="B41">
-        <v>22.3888888888888</v>
+        <v>78.0555555555555</v>
       </c>
       <c r="D41">
-        <v>115.03571428571399</v>
+        <v>122.833333333333</v>
       </c>
       <c r="E41">
-        <v>75.8055555555555</v>
+        <v>67.8333333333333</v>
       </c>
       <c r="G41">
-        <v>172.559523809523</v>
+        <v>179.35714285714201</v>
       </c>
       <c r="H41">
-        <v>17.8055555555555</v>
+        <v>13.3888888888888</v>
       </c>
       <c r="J41">
-        <v>162.47619047619</v>
+        <v>190.26190476190399</v>
       </c>
       <c r="K41">
-        <v>33.7777777777777</v>
+        <v>-5.7222222222222197</v>
       </c>
       <c r="M41">
-        <v>88.380952380952294</v>
+        <v>145.52380952380901</v>
       </c>
       <c r="N41">
-        <v>105.333333333333</v>
+        <v>50.2222222222222</v>
       </c>
       <c r="P41">
-        <v>176.79761904761901</v>
+        <v>163.59523809523799</v>
       </c>
       <c r="Q41">
-        <v>11.25</v>
+        <v>31.1666666666666</v>
       </c>
       <c r="S41">
-        <v>136.73809523809501</v>
+        <v>130.63095238095201</v>
       </c>
       <c r="T41">
-        <v>47.5</v>
+        <v>58.75</v>
       </c>
       <c r="V41">
-        <v>184.15476190476099</v>
+        <v>167.57142857142799</v>
       </c>
       <c r="W41">
-        <v>10.1944444444444</v>
+        <v>24.6666666666666</v>
       </c>
       <c r="Y41">
-        <v>199.40476190476099</v>
+        <v>142.17857142857099</v>
       </c>
       <c r="Z41">
-        <v>0.38888888888888801</v>
+        <v>46.8055555555555</v>
       </c>
       <c r="AB41">
-        <v>91.702380952380906</v>
+        <v>126.28571428571399</v>
       </c>
       <c r="AC41">
-        <v>102.472222222222</v>
+        <v>60.1111111111111</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42">
-        <v>175.48809523809501</v>
+        <v>114.01190476190401</v>
       </c>
       <c r="B42">
-        <v>21.0833333333333</v>
+        <v>78.1944444444444</v>
       </c>
       <c r="D42">
-        <v>116.75</v>
+        <v>127.51190476190401</v>
       </c>
       <c r="E42">
-        <v>78.8055555555555</v>
+        <v>68.5833333333333</v>
       </c>
       <c r="G42">
-        <v>177.25</v>
+        <v>184.20238095238</v>
       </c>
       <c r="H42">
-        <v>18.6388888888888</v>
+        <v>12.8611111111111</v>
       </c>
       <c r="J42">
-        <v>162.79761904761901</v>
+        <v>191.54761904761901</v>
       </c>
       <c r="K42">
-        <v>39.0277777777777</v>
+        <v>-3.6111111111111098</v>
       </c>
       <c r="M42">
-        <v>93.8333333333333</v>
+        <v>148.07142857142799</v>
       </c>
       <c r="N42">
-        <v>106.055555555555</v>
+        <v>53.0555555555555</v>
       </c>
       <c r="P42">
-        <v>180.25</v>
+        <v>165.40476190476099</v>
       </c>
       <c r="Q42">
-        <v>12.0833333333333</v>
+        <v>34.1666666666666</v>
       </c>
       <c r="S42">
-        <v>138.96428571428501</v>
+        <v>129.82142857142799</v>
       </c>
       <c r="T42">
-        <v>49.3055555555555</v>
+        <v>62.6388888888888</v>
       </c>
       <c r="V42">
-        <v>188.53571428571399</v>
+        <v>168.32142857142799</v>
       </c>
       <c r="W42">
-        <v>14.4166666666666</v>
+        <v>28.0277777777777</v>
       </c>
       <c r="Y42">
-        <v>203.52380952380901</v>
+        <v>141.34523809523799</v>
       </c>
       <c r="Z42">
-        <v>0.33333333333333298</v>
+        <v>53.1944444444444</v>
       </c>
       <c r="AB42">
-        <v>93.630952380952294</v>
+        <v>129.10714285714201</v>
       </c>
       <c r="AC42">
-        <v>106.083333333333</v>
+        <v>61.1944444444444</v>
       </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43">
-        <v>180.75</v>
+        <v>119.154761904761</v>
       </c>
       <c r="B43">
-        <v>21.0277777777777</v>
+        <v>78.6388888888888</v>
       </c>
       <c r="D43">
-        <v>118.095238095238</v>
+        <v>133.25</v>
       </c>
       <c r="E43">
-        <v>82.7777777777777</v>
+        <v>68.4166666666666</v>
       </c>
       <c r="G43">
-        <v>179.46428571428501</v>
+        <v>188.67857142857099</v>
       </c>
       <c r="H43">
-        <v>20.4722222222222</v>
+        <v>15.8611111111111</v>
       </c>
       <c r="J43">
-        <v>163</v>
+        <v>194.29761904761901</v>
       </c>
       <c r="K43">
-        <v>43.2222222222222</v>
+        <v>-0.13888888888888801</v>
       </c>
       <c r="M43">
-        <v>97.404761904761898</v>
+        <v>148.88095238095201</v>
       </c>
       <c r="N43">
-        <v>106.833333333333</v>
+        <v>56.7222222222222</v>
       </c>
       <c r="P43">
-        <v>183.90476190476099</v>
+        <v>166.26190476190399</v>
       </c>
       <c r="Q43">
-        <v>13.3333333333333</v>
+        <v>38.1666666666666</v>
       </c>
       <c r="S43">
-        <v>141.059523809523</v>
+        <v>130.309523809523</v>
       </c>
       <c r="T43">
-        <v>50.8611111111111</v>
+        <v>67.5</v>
       </c>
       <c r="V43">
-        <v>191.45238095238</v>
+        <v>168.97619047619</v>
       </c>
       <c r="W43">
-        <v>16.3888888888888</v>
+        <v>33.6111111111111</v>
       </c>
       <c r="Y43">
-        <v>208.916666666666</v>
+        <v>139.916666666666</v>
       </c>
       <c r="Z43">
-        <v>8.3333333333333301E-2</v>
+        <v>57.75</v>
       </c>
       <c r="AB43">
-        <v>95.880952380952294</v>
+        <v>132.03571428571399</v>
       </c>
       <c r="AC43">
-        <v>109.5</v>
+        <v>64.0277777777777</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44">
-        <v>186.5</v>
+        <v>123.059523809523</v>
       </c>
       <c r="B44">
-        <v>20.1666666666666</v>
+        <v>80.3055555555555</v>
       </c>
       <c r="D44">
-        <v>119.119047619047</v>
+        <v>137.82142857142799</v>
       </c>
       <c r="E44">
-        <v>87.9444444444444</v>
+        <v>66.75</v>
       </c>
       <c r="G44">
-        <v>182.119047619047</v>
+        <v>193.54761904761901</v>
       </c>
       <c r="H44">
-        <v>24.0555555555555</v>
+        <v>14.9444444444444</v>
       </c>
       <c r="J44">
-        <v>164.47619047619</v>
+        <v>198.90476190476099</v>
       </c>
       <c r="K44">
-        <v>45.6666666666666</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="M44">
-        <v>102.04761904761899</v>
+        <v>148.97619047619</v>
       </c>
       <c r="N44">
-        <v>106.333333333333</v>
+        <v>60.2777777777777</v>
       </c>
       <c r="P44">
-        <v>187.15476190476099</v>
+        <v>166.26190476190399</v>
       </c>
       <c r="Q44">
-        <v>15.6388888888888</v>
+        <v>43.1666666666666</v>
       </c>
       <c r="S44">
-        <v>141.40476190476099</v>
+        <v>130.32142857142799</v>
       </c>
       <c r="T44">
-        <v>54.2777777777777</v>
+        <v>71.3611111111111</v>
       </c>
       <c r="V44">
-        <v>193.59523809523799</v>
+        <v>167.97619047619</v>
       </c>
       <c r="W44">
-        <v>19.8333333333333</v>
+        <v>39.1666666666666</v>
       </c>
       <c r="Y44">
-        <v>212.85714285714201</v>
+        <v>139.27380952380901</v>
       </c>
       <c r="Z44">
-        <v>1.44444444444444</v>
+        <v>62.1388888888888</v>
       </c>
       <c r="AB44">
-        <v>99.142857142857096</v>
+        <v>135.79761904761901</v>
       </c>
       <c r="AC44">
-        <v>109.777777777777</v>
+        <v>65.9166666666666</v>
       </c>
     </row>
     <row r="45" spans="1:29">
       <c r="A45">
-        <v>193.416666666666</v>
+        <v>129.333333333333</v>
       </c>
       <c r="B45">
-        <v>18.9166666666666</v>
+        <v>80.1111111111111</v>
       </c>
       <c r="D45">
-        <v>118.19047619047601</v>
+        <v>143.48809523809501</v>
       </c>
       <c r="E45">
-        <v>94.2222222222222</v>
+        <v>66.6388888888888</v>
       </c>
       <c r="G45">
-        <v>183.40476190476099</v>
+        <v>197.28571428571399</v>
       </c>
       <c r="H45">
-        <v>27.9444444444444</v>
+        <v>17.1111111111111</v>
       </c>
       <c r="J45">
-        <v>165.369047619047</v>
+        <v>201.47619047619</v>
       </c>
       <c r="K45">
-        <v>50.4722222222222</v>
+        <v>1.3333333333333299</v>
       </c>
       <c r="M45">
-        <v>106.928571428571</v>
+        <v>149.01190476190399</v>
       </c>
       <c r="N45">
-        <v>105.944444444444</v>
+        <v>62.3055555555555</v>
       </c>
       <c r="P45">
-        <v>190.13095238095201</v>
+        <v>164.46428571428501</v>
       </c>
       <c r="Q45">
-        <v>17.3611111111111</v>
+        <v>48.1388888888888</v>
       </c>
       <c r="S45">
-        <v>143.309523809523</v>
+        <v>129.65476190476099</v>
       </c>
       <c r="T45">
-        <v>58.1666666666666</v>
+        <v>77.6944444444444</v>
       </c>
       <c r="V45">
-        <v>194.809523809523</v>
+        <v>166.642857142857</v>
       </c>
       <c r="W45">
-        <v>22.7777777777777</v>
+        <v>45.0555555555555</v>
       </c>
       <c r="Y45">
-        <v>215.76190476190399</v>
+        <v>139.85714285714201</v>
       </c>
       <c r="Z45">
-        <v>4.3333333333333304</v>
+        <v>67.1111111111111</v>
       </c>
       <c r="AB45">
-        <v>104.10714285714199</v>
+        <v>141.75</v>
       </c>
       <c r="AC45">
-        <v>110.416666666666</v>
+        <v>65.3611111111111</v>
       </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46">
-        <v>199.51190476190399</v>
+        <v>133.583333333333</v>
       </c>
       <c r="B46">
-        <v>17.25</v>
+        <v>81.4166666666666</v>
       </c>
       <c r="D46">
-        <v>119.916666666666</v>
+        <v>150.54761904761901</v>
       </c>
       <c r="E46">
-        <v>98.4166666666666</v>
+        <v>65.2777777777777</v>
       </c>
       <c r="G46">
-        <v>184.75</v>
+        <v>201.309523809523</v>
       </c>
       <c r="H46">
-        <v>31.0277777777777</v>
+        <v>17.5</v>
       </c>
       <c r="J46">
-        <v>166.833333333333</v>
+        <v>204.27380952380901</v>
       </c>
       <c r="K46">
-        <v>54.1666666666666</v>
+        <v>3.3611111111111098</v>
       </c>
       <c r="M46">
-        <v>112.916666666666</v>
+        <v>150.583333333333</v>
       </c>
       <c r="N46">
-        <v>105.75</v>
+        <v>64.8611111111111</v>
       </c>
       <c r="P46">
-        <v>191.54761904761901</v>
+        <v>162.78571428571399</v>
       </c>
       <c r="Q46">
-        <v>23.5</v>
+        <v>53.1666666666666</v>
       </c>
       <c r="S46">
-        <v>147.19047619047601</v>
+        <v>128.54761904761901</v>
       </c>
       <c r="T46">
-        <v>60.1111111111111</v>
+        <v>84.2777777777777</v>
       </c>
       <c r="V46">
-        <v>195.29761904761901</v>
+        <v>165.48809523809501</v>
       </c>
       <c r="W46">
-        <v>29.4166666666666</v>
+        <v>50.9722222222222</v>
       </c>
       <c r="Y46">
-        <v>219.10714285714201</v>
+        <v>141.34523809523799</v>
       </c>
       <c r="Z46">
-        <v>7.9722222222222197</v>
+        <v>70.0833333333333</v>
       </c>
       <c r="AB46">
-        <v>110.20238095238</v>
+        <v>147.65476190476099</v>
       </c>
       <c r="AC46">
-        <v>110.083333333333</v>
+        <v>65.9166666666666</v>
       </c>
     </row>
     <row r="47" spans="1:29">
       <c r="A47">
-        <v>204.85714285714201</v>
+        <v>139.73809523809501</v>
       </c>
       <c r="B47">
-        <v>16.5555555555555</v>
+        <v>81.9444444444444</v>
       </c>
       <c r="D47">
-        <v>120.928571428571</v>
+        <v>157.52380952380901</v>
       </c>
       <c r="E47">
-        <v>101.5</v>
+        <v>63.3333333333333</v>
       </c>
       <c r="G47">
-        <v>188.22619047619</v>
+        <v>206.642857142857</v>
       </c>
       <c r="H47">
-        <v>33.4722222222222</v>
+        <v>16.6111111111111</v>
       </c>
       <c r="J47">
-        <v>170.82142857142799</v>
+        <v>208.916666666666</v>
       </c>
       <c r="K47">
-        <v>57.1944444444444</v>
+        <v>3.9722222222222201</v>
       </c>
       <c r="M47">
-        <v>115.380952380952</v>
+        <v>153.47619047619</v>
       </c>
       <c r="N47">
-        <v>106.555555555555</v>
+        <v>66.1111111111111</v>
       </c>
       <c r="P47">
-        <v>192.69047619047601</v>
+        <v>160.96428571428501</v>
       </c>
       <c r="Q47">
-        <v>26.9444444444444</v>
+        <v>59.5277777777777</v>
       </c>
       <c r="S47">
-        <v>151.76190476190399</v>
+        <v>127.29761904761899</v>
       </c>
       <c r="T47">
-        <v>60.6666666666666</v>
+        <v>90.6388888888888</v>
       </c>
       <c r="V47">
-        <v>194.48809523809501</v>
+        <v>163.76190476190399</v>
       </c>
       <c r="W47">
-        <v>37.6388888888888</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="Y47">
-        <v>219.01190476190399</v>
+        <v>145.57142857142799</v>
       </c>
       <c r="Z47">
-        <v>11.0833333333333</v>
+        <v>69.8888888888888</v>
       </c>
       <c r="AB47">
-        <v>114.880952380952</v>
+        <v>152.88095238095201</v>
       </c>
       <c r="AC47">
-        <v>110.277777777777</v>
+        <v>65.9444444444444</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48">
-        <v>208.583333333333</v>
+        <v>144.90476190476099</v>
       </c>
       <c r="B48">
-        <v>16.3055555555555</v>
+        <v>81.5555555555555</v>
       </c>
       <c r="D48">
-        <v>119.083333333333</v>
+        <v>162.059523809523</v>
       </c>
       <c r="E48">
-        <v>106.25</v>
+        <v>61.0833333333333</v>
       </c>
       <c r="G48">
-        <v>190.04761904761901</v>
+        <v>211.916666666666</v>
       </c>
       <c r="H48">
-        <v>36</v>
+        <v>14.75</v>
       </c>
       <c r="J48">
-        <v>173.13095238095201</v>
+        <v>213.13095238095201</v>
       </c>
       <c r="K48">
-        <v>60.25</v>
+        <v>3.80555555555555</v>
       </c>
       <c r="M48">
-        <v>119.60714285714199</v>
+        <v>157.40476190476099</v>
       </c>
       <c r="N48">
-        <v>110.361111111111</v>
+        <v>66.6111111111111</v>
       </c>
       <c r="P48">
-        <v>193.559523809523</v>
+        <v>159.57142857142799</v>
       </c>
       <c r="Q48">
-        <v>31.1388888888888</v>
+        <v>67.4444444444444</v>
       </c>
       <c r="S48">
-        <v>155.35714285714201</v>
+        <v>127.52380952380901</v>
       </c>
       <c r="T48">
-        <v>61.0555555555555</v>
+        <v>94.5555555555555</v>
       </c>
       <c r="V48">
-        <v>193.84523809523799</v>
+        <v>161.559523809523</v>
       </c>
       <c r="W48">
-        <v>43.0277777777777</v>
+        <v>65.3611111111111</v>
       </c>
       <c r="Y48">
-        <v>218.15476190476099</v>
+        <v>149.54761904761901</v>
       </c>
       <c r="Z48">
-        <v>15.9722222222222</v>
+        <v>69.6111111111111</v>
       </c>
       <c r="AB48">
-        <v>119.928571428571</v>
+        <v>159</v>
       </c>
       <c r="AC48">
-        <v>110.277777777777</v>
+        <v>64.6666666666666</v>
       </c>
     </row>
     <row r="49" spans="1:29">
       <c r="A49">
-        <v>213.76190476190399</v>
+        <v>150.916666666666</v>
       </c>
       <c r="B49">
-        <v>19.7777777777777</v>
+        <v>81.0833333333333</v>
       </c>
       <c r="D49">
-        <v>118.45238095238</v>
+        <v>166.79761904761901</v>
       </c>
       <c r="E49">
-        <v>109.5</v>
+        <v>59.4722222222222</v>
       </c>
       <c r="G49">
-        <v>192.15476190476099</v>
+        <v>216.40476190476099</v>
       </c>
       <c r="H49">
-        <v>38.5277777777777</v>
+        <v>14.2777777777777</v>
       </c>
       <c r="J49">
-        <v>173.79761904761901</v>
+        <v>216.95238095238</v>
       </c>
       <c r="K49">
-        <v>62.1388888888888</v>
+        <v>4</v>
       </c>
       <c r="M49">
-        <v>121.70238095238</v>
+        <v>160.29761904761901</v>
       </c>
       <c r="N49">
-        <v>112.027777777777</v>
+        <v>66.8611111111111</v>
       </c>
       <c r="P49">
-        <v>193.916666666666</v>
+        <v>160.72619047619</v>
       </c>
       <c r="Q49">
-        <v>37.1944444444444</v>
+        <v>69.0833333333333</v>
       </c>
       <c r="S49">
-        <v>160.63095238095201</v>
+        <v>128.642857142857</v>
       </c>
       <c r="T49">
-        <v>60.8611111111111</v>
+        <v>98.1666666666666</v>
       </c>
       <c r="V49">
-        <v>192.82142857142799</v>
+        <v>159.38095238095201</v>
       </c>
       <c r="W49">
-        <v>47.6388888888888</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="Y49">
-        <v>217.70238095238</v>
+        <v>155.059523809523</v>
       </c>
       <c r="Z49">
-        <v>20.9166666666666</v>
+        <v>67.8611111111111</v>
       </c>
       <c r="AB49">
-        <v>122.321428571428</v>
+        <v>165.369047619047</v>
       </c>
       <c r="AC49">
-        <v>112.361111111111</v>
+        <v>64.0277777777777</v>
       </c>
     </row>
     <row r="50" spans="1:29">
       <c r="A50">
-        <v>215.69047619047601</v>
+        <v>153.96428571428501</v>
       </c>
       <c r="B50">
-        <v>21.9444444444444</v>
+        <v>81.4166666666666</v>
       </c>
       <c r="D50">
-        <v>120.428571428571</v>
+        <v>170.85714285714201</v>
       </c>
       <c r="E50">
-        <v>113.888888888888</v>
+        <v>58.3333333333333</v>
       </c>
       <c r="G50">
-        <v>193.67857142857099</v>
+        <v>219.42857142857099</v>
       </c>
       <c r="H50">
-        <v>42.3055555555555</v>
+        <v>16.4444444444444</v>
       </c>
       <c r="J50">
-        <v>174.57142857142799</v>
+        <v>221.23809523809501</v>
       </c>
       <c r="K50">
-        <v>66.1111111111111</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>125.214285714285</v>
+        <v>162.25</v>
       </c>
       <c r="N50">
-        <v>117.166666666666</v>
+        <v>68.5277777777777</v>
       </c>
       <c r="P50">
-        <v>196.559523809523</v>
+        <v>162.083333333333</v>
       </c>
       <c r="Q50">
-        <v>38.9166666666666</v>
+        <v>73.3611111111111</v>
       </c>
       <c r="S50">
-        <v>164.46428571428501</v>
+        <v>132.19047619047601</v>
       </c>
       <c r="T50">
-        <v>61.3611111111111</v>
+        <v>99.6666666666666</v>
       </c>
       <c r="V50">
-        <v>193.059523809523</v>
+        <v>157.333333333333</v>
       </c>
       <c r="W50">
-        <v>52.9722222222222</v>
+        <v>79.6666666666666</v>
       </c>
       <c r="Y50">
-        <v>218.52380952380901</v>
+        <v>161.23809523809501</v>
       </c>
       <c r="Z50">
-        <v>22.4444444444444</v>
+        <v>66.7777777777777</v>
       </c>
       <c r="AB50">
-        <v>124.76190476190401</v>
+        <v>172.07142857142799</v>
       </c>
       <c r="AC50">
-        <v>118.111111111111</v>
+        <v>62.6111111111111</v>
       </c>
     </row>
     <row r="51" spans="1:29">
       <c r="A51">
-        <v>216.26190476190399</v>
+        <v>159.44047619047601</v>
       </c>
       <c r="B51">
-        <v>25.7222222222222</v>
+        <v>81.1944444444444</v>
       </c>
       <c r="D51">
-        <v>123.27380952380901</v>
+        <v>174.833333333333</v>
       </c>
       <c r="E51">
-        <v>115.25</v>
+        <v>58.8333333333333</v>
       </c>
       <c r="G51">
-        <v>194.46428571428501</v>
+        <v>222.19047619047601</v>
       </c>
       <c r="H51">
-        <v>48.25</v>
+        <v>18</v>
       </c>
       <c r="J51">
-        <v>177.28571428571399</v>
+        <v>226.392857142857</v>
       </c>
       <c r="K51">
-        <v>67.7777777777777</v>
+        <v>6.8611111111111098</v>
       </c>
       <c r="M51">
-        <v>125.928571428571</v>
+        <v>165.42857142857099</v>
       </c>
       <c r="N51">
-        <v>123.5</v>
+        <v>70.1111111111111</v>
       </c>
       <c r="P51">
-        <v>200.25</v>
+        <v>164.369047619047</v>
       </c>
       <c r="Q51">
-        <v>38.8611111111111</v>
+        <v>77.8055555555555</v>
       </c>
       <c r="S51">
-        <v>169.416666666666</v>
+        <v>136.01190476190399</v>
       </c>
       <c r="T51">
-        <v>61.25</v>
+        <v>101.194444444444</v>
       </c>
       <c r="V51">
-        <v>194.666666666666</v>
+        <v>156.892857142857</v>
       </c>
       <c r="W51">
-        <v>55.3333333333333</v>
+        <v>83.8055555555555</v>
       </c>
       <c r="Y51">
-        <v>220.23809523809501</v>
+        <v>167.52380952380901</v>
       </c>
       <c r="Z51">
-        <v>26.7777777777777</v>
+        <v>65.6666666666666</v>
       </c>
       <c r="AB51">
-        <v>129.28571428571399</v>
+        <v>177.95238095238</v>
       </c>
       <c r="AC51">
-        <v>118.777777777777</v>
+        <v>61.3333333333333</v>
       </c>
     </row>
     <row r="52" spans="1:29">
       <c r="A52">
-        <v>217</v>
+        <v>164.69047619047601</v>
       </c>
       <c r="B52">
-        <v>26.4444444444444</v>
+        <v>81.5</v>
       </c>
       <c r="D52">
-        <v>126.738095238095</v>
+        <v>178.059523809523</v>
       </c>
       <c r="E52">
-        <v>116.722222222222</v>
+        <v>60.0833333333333</v>
       </c>
       <c r="G52">
-        <v>195.666666666666</v>
+        <v>224.82142857142799</v>
       </c>
       <c r="H52">
-        <v>53.4444444444444</v>
+        <v>19.8611111111111</v>
       </c>
       <c r="J52">
-        <v>180.35714285714201</v>
+        <v>230.01190476190399</v>
       </c>
       <c r="K52">
-        <v>68.8333333333333</v>
+        <v>8.8611111111111107</v>
       </c>
       <c r="M52">
-        <v>127.76190476190401</v>
+        <v>167.98809523809501</v>
       </c>
       <c r="N52">
-        <v>125.777777777777</v>
+        <v>71.6944444444444</v>
       </c>
       <c r="P52">
-        <v>203.09523809523799</v>
+        <v>168.642857142857</v>
       </c>
       <c r="Q52">
-        <v>41.3333333333333</v>
+        <v>77.8333333333333</v>
       </c>
       <c r="S52">
-        <v>172.059523809523</v>
+        <v>139.45238095238</v>
       </c>
       <c r="T52">
-        <v>61.6388888888888</v>
+        <v>102.944444444444</v>
       </c>
       <c r="V52">
-        <v>197.059523809523</v>
+        <v>159.892857142857</v>
       </c>
       <c r="W52">
-        <v>56.1944444444444</v>
+        <v>84.9166666666666</v>
       </c>
       <c r="Y52">
-        <v>224.309523809523</v>
+        <v>173.559523809523</v>
       </c>
       <c r="Z52">
-        <v>27.6111111111111</v>
+        <v>64.25</v>
       </c>
       <c r="AB52">
-        <v>133.65476190476099</v>
+        <v>183.09523809523799</v>
       </c>
       <c r="AC52">
-        <v>118.138888888888</v>
+        <v>60.5555555555555</v>
       </c>
     </row>
     <row r="53" spans="1:29">
       <c r="A53">
-        <v>217.21428571428501</v>
+        <v>169.85714285714201</v>
       </c>
       <c r="B53">
-        <v>31.3888888888888</v>
+        <v>81.2222222222222</v>
       </c>
       <c r="D53">
-        <v>130.46428571428501</v>
+        <v>179.892857142857</v>
       </c>
       <c r="E53">
-        <v>118.027777777777</v>
+        <v>61.4722222222222</v>
       </c>
       <c r="G53">
-        <v>196.03571428571399</v>
+        <v>227.98809523809501</v>
       </c>
       <c r="H53">
-        <v>57.3611111111111</v>
+        <v>20.6944444444444</v>
       </c>
       <c r="J53">
-        <v>183.13095238095201</v>
+        <v>234.416666666666</v>
       </c>
       <c r="K53">
-        <v>70.25</v>
+        <v>8.9166666666666607</v>
       </c>
       <c r="M53">
-        <v>130.82142857142799</v>
+        <v>170.75</v>
       </c>
       <c r="N53">
-        <v>130.305555555555</v>
+        <v>73.25</v>
       </c>
       <c r="P53">
-        <v>204.19047619047601</v>
+        <v>171.119047619047</v>
       </c>
       <c r="Q53">
-        <v>46.6666666666666</v>
+        <v>79.7222222222222</v>
       </c>
       <c r="S53">
-        <v>175.47619047619</v>
+        <v>143.17857142857099</v>
       </c>
       <c r="T53">
-        <v>61.6666666666666</v>
+        <v>103.027777777777</v>
       </c>
       <c r="V53">
-        <v>200.60714285714201</v>
+        <v>164.083333333333</v>
       </c>
       <c r="W53">
-        <v>58.8055555555555</v>
+        <v>86.1388888888888</v>
       </c>
       <c r="Y53">
-        <v>227.97619047619</v>
+        <v>179.059523809523</v>
       </c>
       <c r="Z53">
-        <v>28.6111111111111</v>
+        <v>64.6388888888888</v>
       </c>
       <c r="AB53">
-        <v>140.40476190476099</v>
+        <v>189.72619047619</v>
       </c>
       <c r="AC53">
-        <v>116.944444444444</v>
+        <v>60.0833333333333</v>
       </c>
     </row>
     <row r="54" spans="1:29">
       <c r="A54">
-        <v>216.71428571428501</v>
+        <v>175.07142857142799</v>
       </c>
       <c r="B54">
-        <v>38.5555555555555</v>
+        <v>80.8333333333333</v>
       </c>
       <c r="D54">
-        <v>134.583333333333</v>
+        <v>184.53571428571399</v>
       </c>
       <c r="E54">
-        <v>118.527777777777</v>
+        <v>62.1944444444444</v>
       </c>
       <c r="G54">
-        <v>196.5</v>
+        <v>230.92857142857099</v>
       </c>
       <c r="H54">
-        <v>61.5</v>
+        <v>21.7222222222222</v>
       </c>
       <c r="J54">
-        <v>186.142857142857</v>
+        <v>238.619047619047</v>
       </c>
       <c r="K54">
-        <v>72.3333333333333</v>
+        <v>9.6666666666666607</v>
       </c>
       <c r="M54">
-        <v>134.71428571428501</v>
+        <v>171.29761904761901</v>
       </c>
       <c r="N54">
-        <v>131.555555555555</v>
+        <v>79.6388888888888</v>
       </c>
       <c r="P54">
-        <v>204.71428571428501</v>
+        <v>173.02380952380901</v>
       </c>
       <c r="Q54">
-        <v>53.5555555555555</v>
+        <v>83.6111111111111</v>
       </c>
       <c r="S54">
-        <v>178.583333333333</v>
+        <v>144.88095238095201</v>
       </c>
       <c r="T54">
-        <v>63.9722222222222</v>
+        <v>106.944444444444</v>
       </c>
       <c r="V54">
-        <v>202.54761904761901</v>
+        <v>167.95238095238</v>
       </c>
       <c r="W54">
-        <v>59.8333333333333</v>
+        <v>86.6666666666666</v>
       </c>
       <c r="Y54">
-        <v>233.07142857142799</v>
+        <v>183.52380952380901</v>
       </c>
       <c r="Z54">
-        <v>28.5</v>
+        <v>67.2222222222222</v>
       </c>
       <c r="AB54">
-        <v>145.20238095238</v>
+        <v>195</v>
       </c>
       <c r="AC54">
-        <v>116.861111111111</v>
+        <v>59.8888888888888</v>
       </c>
     </row>
     <row r="55" spans="1:29">
       <c r="A55">
-        <v>218.46428571428501</v>
+        <v>179.57142857142799</v>
       </c>
       <c r="B55">
-        <v>41.5833333333333</v>
+        <v>80.5555555555555</v>
       </c>
       <c r="D55">
-        <v>139.642857142857</v>
+        <v>188.79761904761901</v>
       </c>
       <c r="E55">
-        <v>118.944444444444</v>
+        <v>65.25</v>
       </c>
       <c r="G55">
-        <v>197.97619047619</v>
+        <v>234.17857142857099</v>
       </c>
       <c r="H55">
-        <v>65.0555555555555</v>
+        <v>23.9166666666666</v>
       </c>
       <c r="J55">
-        <v>190.22619047619</v>
+        <v>241.333333333333</v>
       </c>
       <c r="K55">
-        <v>72.1388888888888</v>
+        <v>8.7777777777777697</v>
       </c>
       <c r="M55">
-        <v>137.416666666666</v>
+        <v>170.392857142857</v>
       </c>
       <c r="N55">
-        <v>135.138888888888</v>
+        <v>85.1944444444444</v>
       </c>
       <c r="P55">
-        <v>205.01190476190399</v>
+        <v>173.98809523809501</v>
       </c>
       <c r="Q55">
-        <v>60.5277777777777</v>
+        <v>87.6944444444444</v>
       </c>
       <c r="S55">
-        <v>178.71428571428501</v>
+        <v>147.666666666666</v>
       </c>
       <c r="T55">
-        <v>66</v>
+        <v>108.777777777777</v>
       </c>
       <c r="V55">
-        <v>203.67857142857099</v>
+        <v>172.45238095238</v>
       </c>
       <c r="W55">
-        <v>64.8611111111111</v>
+        <v>89.2777777777777</v>
       </c>
       <c r="Y55">
-        <v>237.03571428571399</v>
+        <v>186.20238095238</v>
       </c>
       <c r="Z55">
-        <v>28.4722222222222</v>
+        <v>67.6388888888888</v>
       </c>
       <c r="AB55">
-        <v>150.72619047619</v>
+        <v>200.119047619047</v>
       </c>
       <c r="AC55">
-        <v>116.861111111111</v>
+        <v>61.2777777777777</v>
       </c>
     </row>
     <row r="56" spans="1:29">
       <c r="A56">
-        <v>220.54761904761901</v>
+        <v>185.71428571428501</v>
       </c>
       <c r="B56">
-        <v>44.5</v>
+        <v>80.3333333333333</v>
       </c>
       <c r="D56">
-        <v>144.083333333333</v>
+        <v>191.77380952380901</v>
       </c>
       <c r="E56">
-        <v>118.472222222222</v>
+        <v>68.5277777777777</v>
       </c>
       <c r="G56">
-        <v>200.21428571428501</v>
+        <v>238.34523809523799</v>
       </c>
       <c r="H56">
-        <v>71.2777777777777</v>
+        <v>24.9722222222222</v>
       </c>
       <c r="J56">
-        <v>193.03571428571399</v>
+        <v>243.65476190476099</v>
       </c>
       <c r="K56">
-        <v>76.0277777777777</v>
+        <v>13.8055555555555</v>
       </c>
       <c r="M56">
-        <v>140.916666666666</v>
+        <v>168.65476190476099</v>
       </c>
       <c r="N56">
-        <v>138.861111111111</v>
+        <v>92.4722222222222</v>
       </c>
       <c r="P56">
-        <v>202.892857142857</v>
+        <v>175.35714285714201</v>
       </c>
       <c r="Q56">
-        <v>67.3611111111111</v>
+        <v>91.1666666666666</v>
       </c>
       <c r="S56">
-        <v>178.369047619047</v>
+        <v>150.44047619047601</v>
       </c>
       <c r="T56">
-        <v>70.4722222222222</v>
+        <v>112.194444444444</v>
       </c>
       <c r="V56">
-        <v>205.52380952380901</v>
+        <v>177.40476190476099</v>
       </c>
       <c r="W56">
-        <v>69.3333333333333</v>
+        <v>91.6111111111111</v>
       </c>
       <c r="Y56">
-        <v>239</v>
+        <v>189.32142857142799</v>
       </c>
       <c r="Z56">
-        <v>28.5555555555555</v>
+        <v>69.3611111111111</v>
       </c>
       <c r="AB56">
-        <v>155.17857142857099</v>
+        <v>205.416666666666</v>
       </c>
       <c r="AC56">
-        <v>117.361111111111</v>
+        <v>62.5833333333333</v>
       </c>
     </row>
     <row r="57" spans="1:29">
       <c r="A57">
-        <v>222.333333333333</v>
+        <v>190.27380952380901</v>
       </c>
       <c r="B57">
-        <v>48.2222222222222</v>
+        <v>81.3611111111111</v>
       </c>
       <c r="D57">
-        <v>148.392857142857</v>
+        <v>193.809523809523</v>
       </c>
       <c r="E57">
-        <v>120.416666666666</v>
+        <v>72.7777777777777</v>
       </c>
       <c r="G57">
-        <v>202.97619047619</v>
+        <v>241.5</v>
       </c>
       <c r="H57">
-        <v>72.2777777777777</v>
+        <v>26.5</v>
       </c>
       <c r="J57">
-        <v>197.63095238095201</v>
+        <v>246.25</v>
       </c>
       <c r="K57">
-        <v>76.3055555555555</v>
+        <v>17.4166666666666</v>
       </c>
       <c r="M57">
-        <v>145.47619047619</v>
+        <v>166.333333333333</v>
       </c>
       <c r="N57">
-        <v>139.444444444444</v>
+        <v>100.222222222222</v>
       </c>
       <c r="P57">
-        <v>200.94047619047601</v>
+        <v>178.892857142857</v>
       </c>
       <c r="Q57">
-        <v>73.6944444444444</v>
+        <v>92.5833333333333</v>
       </c>
       <c r="S57">
-        <v>178.392857142857</v>
+        <v>153.17857142857099</v>
       </c>
       <c r="T57">
-        <v>73.6388888888888</v>
+        <v>113.361111111111</v>
       </c>
       <c r="V57">
-        <v>208.76190476190399</v>
+        <v>180.369047619047</v>
       </c>
       <c r="W57">
-        <v>69.7777777777777</v>
+        <v>91.6944444444444</v>
       </c>
       <c r="Y57">
-        <v>240.809523809523</v>
+        <v>191.67857142857099</v>
       </c>
       <c r="Z57">
-        <v>29.8888888888888</v>
+        <v>72.6388888888888</v>
       </c>
       <c r="AB57">
-        <v>161.73809523809501</v>
+        <v>209.97619047619</v>
       </c>
       <c r="AC57">
-        <v>118.055555555555</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="58" spans="1:29">
       <c r="A58">
-        <v>225.25</v>
+        <v>194.69047619047601</v>
       </c>
       <c r="B58">
-        <v>50.4166666666666</v>
+        <v>83.2777777777777</v>
       </c>
       <c r="D58">
-        <v>153.35714285714201</v>
+        <v>196.26190476190399</v>
       </c>
       <c r="E58">
-        <v>120.055555555555</v>
+        <v>74.1666666666666</v>
       </c>
       <c r="G58">
-        <v>205.45238095238</v>
+        <v>244.20238095238</v>
       </c>
       <c r="H58">
-        <v>72.9444444444444</v>
+        <v>30.75</v>
       </c>
       <c r="J58">
-        <v>201.833333333333</v>
+        <v>247.309523809523</v>
       </c>
       <c r="K58">
-        <v>77.3888888888888</v>
+        <v>20.7222222222222</v>
       </c>
       <c r="M58">
-        <v>149.70238095238</v>
+        <v>163.869047619047</v>
       </c>
       <c r="N58">
-        <v>139.805555555555</v>
+        <v>107.305555555555</v>
       </c>
       <c r="P58">
-        <v>199</v>
+        <v>182.369047619047</v>
       </c>
       <c r="Q58">
-        <v>78</v>
+        <v>92.5833333333333</v>
       </c>
       <c r="S58">
-        <v>178.892857142857</v>
+        <v>154.71428571428501</v>
       </c>
       <c r="T58">
-        <v>77.3611111111111</v>
+        <v>115</v>
       </c>
       <c r="V58">
-        <v>211.54761904761901</v>
+        <v>182.333333333333</v>
       </c>
       <c r="W58">
-        <v>71.3888888888888</v>
+        <v>93.3333333333333</v>
       </c>
       <c r="Y58">
-        <v>240.57142857142799</v>
+        <v>192.84523809523799</v>
       </c>
       <c r="Z58">
-        <v>32.8888888888888</v>
+        <v>77.0277777777777</v>
       </c>
       <c r="AB58">
-        <v>165.666666666666</v>
+        <v>214.77380952380901</v>
       </c>
       <c r="AC58">
-        <v>119.444444444444</v>
+        <v>66.8611111111111</v>
       </c>
     </row>
     <row r="59" spans="1:29">
       <c r="A59">
-        <v>228.666666666666</v>
+        <v>199.13095238095201</v>
       </c>
       <c r="B59">
-        <v>52.1111111111111</v>
+        <v>84.4722222222222</v>
       </c>
       <c r="D59">
-        <v>158.22619047619</v>
+        <v>198.65476190476099</v>
       </c>
       <c r="E59">
-        <v>119.583333333333</v>
+        <v>78.4722222222222</v>
       </c>
       <c r="G59">
-        <v>208.01190476190399</v>
+        <v>244.059523809523</v>
       </c>
       <c r="H59">
-        <v>75.9722222222222</v>
+        <v>33.8611111111111</v>
       </c>
       <c r="J59">
-        <v>206.35714285714201</v>
+        <v>247.77380952380901</v>
       </c>
       <c r="K59">
-        <v>78.0555555555555</v>
+        <v>25.6388888888888</v>
       </c>
       <c r="M59">
-        <v>153.52380952380901</v>
+        <v>161.42857142857099</v>
       </c>
       <c r="N59">
-        <v>139.333333333333</v>
+        <v>114.555555555555</v>
       </c>
       <c r="P59">
-        <v>196.98809523809501</v>
+        <v>185.142857142857</v>
       </c>
       <c r="Q59">
-        <v>81.25</v>
+        <v>94.3333333333333</v>
       </c>
       <c r="S59">
-        <v>181.083333333333</v>
+        <v>157.04761904761901</v>
       </c>
       <c r="T59">
-        <v>81.9166666666666</v>
+        <v>118.777777777777</v>
       </c>
       <c r="V59">
-        <v>215.84523809523799</v>
+        <v>183.833333333333</v>
       </c>
       <c r="W59">
-        <v>72.3611111111111</v>
+        <v>97.2777777777777</v>
       </c>
       <c r="Y59">
-        <v>241.60714285714201</v>
+        <v>193.82142857142799</v>
       </c>
       <c r="Z59">
-        <v>38.1388888888888</v>
+        <v>82.5277777777777</v>
       </c>
       <c r="AB59">
-        <v>172.02380952380901</v>
+        <v>217.77380952380901</v>
       </c>
       <c r="AC59">
-        <v>120.166666666666</v>
+        <v>72.4166666666666</v>
       </c>
     </row>
     <row r="60" spans="1:29">
       <c r="A60">
-        <v>231.88095238095201</v>
+        <v>203.416666666666</v>
       </c>
       <c r="B60">
-        <v>55.0555555555555</v>
+        <v>86.4722222222222</v>
       </c>
       <c r="D60">
-        <v>162.54761904761901</v>
+        <v>201.02380952380901</v>
       </c>
       <c r="E60">
-        <v>118.944444444444</v>
+        <v>82.7222222222222</v>
       </c>
       <c r="G60">
-        <v>210.833333333333</v>
+        <v>243.69047619047601</v>
       </c>
       <c r="H60">
-        <v>79.6111111111111</v>
+        <v>41.3888888888888</v>
       </c>
       <c r="J60">
-        <v>210.57142857142799</v>
+        <v>247.892857142857</v>
       </c>
       <c r="K60">
-        <v>77.8888888888888</v>
+        <v>32.4722222222222</v>
       </c>
       <c r="M60">
-        <v>157.166666666666</v>
+        <v>160.166666666666</v>
       </c>
       <c r="N60">
-        <v>140.388888888888</v>
+        <v>120.722222222222</v>
       </c>
       <c r="P60">
-        <v>194.98809523809501</v>
+        <v>189.48809523809501</v>
       </c>
       <c r="Q60">
-        <v>86.4722222222222</v>
+        <v>95.6388888888888</v>
       </c>
       <c r="S60">
-        <v>186.166666666666</v>
+        <v>159.666666666666</v>
       </c>
       <c r="T60">
-        <v>81.8333333333333</v>
+        <v>122.333333333333</v>
       </c>
       <c r="V60">
-        <v>220.65476190476099</v>
+        <v>186.53571428571399</v>
       </c>
       <c r="W60">
-        <v>74.4722222222222</v>
+        <v>99.1944444444444</v>
       </c>
       <c r="Y60">
-        <v>241.809523809523</v>
+        <v>195.416666666666</v>
       </c>
       <c r="Z60">
-        <v>41.7777777777777</v>
+        <v>85.5833333333333</v>
       </c>
       <c r="AB60">
-        <v>176.02380952380901</v>
+        <v>219.369047619047</v>
       </c>
       <c r="AC60">
-        <v>122.166666666666</v>
+        <v>75.5833333333333</v>
       </c>
     </row>
     <row r="61" spans="1:29">
       <c r="A61">
-        <v>234.642857142857</v>
+        <v>207.416666666666</v>
       </c>
       <c r="B61">
-        <v>57.7222222222222</v>
+        <v>87.8055555555555</v>
       </c>
       <c r="D61">
-        <v>167.19047619047601</v>
+        <v>204.57142857142799</v>
       </c>
       <c r="E61">
-        <v>118.777777777777</v>
+        <v>85.2222222222222</v>
       </c>
       <c r="G61">
-        <v>214.40476190476099</v>
+        <v>241.95238095238</v>
       </c>
       <c r="H61">
-        <v>80.2777777777777</v>
+        <v>47.8888888888888</v>
       </c>
       <c r="J61">
-        <v>214.38095238095201</v>
+        <v>248.57142857142799</v>
       </c>
       <c r="K61">
-        <v>80.5555555555555</v>
+        <v>37.7777777777777</v>
       </c>
       <c r="M61">
-        <v>162.52380952380901</v>
+        <v>160.47619047619</v>
       </c>
       <c r="N61">
-        <v>139.666666666666</v>
+        <v>124.888888888888</v>
       </c>
       <c r="P61">
-        <v>196.70238095238</v>
+        <v>194.97619047619</v>
       </c>
       <c r="Q61">
-        <v>89.9166666666666</v>
+        <v>95.5</v>
       </c>
       <c r="S61">
-        <v>191.09523809523799</v>
+        <v>162.84523809523799</v>
       </c>
       <c r="T61">
-        <v>81.2222222222222</v>
+        <v>123.583333333333</v>
       </c>
       <c r="V61">
-        <v>223.416666666666</v>
+        <v>190.53571428571399</v>
       </c>
       <c r="W61">
-        <v>74.5833333333333</v>
+        <v>101.638888888888</v>
       </c>
       <c r="Y61">
-        <v>242.63095238095201</v>
+        <v>199.34523809523799</v>
       </c>
       <c r="Z61">
-        <v>43.9722222222222</v>
+        <v>88.9722222222222</v>
       </c>
       <c r="AB61">
-        <v>179.416666666666</v>
+        <v>221.22619047619</v>
       </c>
       <c r="AC61">
-        <v>125.472222222222</v>
+        <v>79.9166666666666</v>
       </c>
     </row>
     <row r="62" spans="1:29">
       <c r="A62">
-        <v>236.98809523809501</v>
+        <v>210.22619047619</v>
       </c>
       <c r="B62">
-        <v>62.1388888888888</v>
+        <v>90.4722222222222</v>
       </c>
       <c r="D62">
-        <v>172.666666666666</v>
+        <v>206.95238095238</v>
       </c>
       <c r="E62">
-        <v>119.111111111111</v>
+        <v>90.1111111111111</v>
       </c>
       <c r="G62">
-        <v>218.309523809523</v>
+        <v>241.21428571428501</v>
       </c>
       <c r="H62">
-        <v>82.3888888888888</v>
+        <v>53.5</v>
       </c>
       <c r="J62">
-        <v>218.27380952380901</v>
+        <v>248.10714285714201</v>
       </c>
       <c r="K62">
-        <v>82.5833333333333</v>
+        <v>45.8611111111111</v>
       </c>
       <c r="M62">
-        <v>166.96428571428501</v>
+        <v>162.94047619047601</v>
       </c>
       <c r="N62">
-        <v>140.305555555555</v>
+        <v>129.25</v>
       </c>
       <c r="P62">
-        <v>199.09523809523799</v>
+        <v>198.73809523809501</v>
       </c>
       <c r="Q62">
-        <v>92.6666666666666</v>
+        <v>95.9444444444444</v>
       </c>
       <c r="S62">
-        <v>195.13095238095201</v>
+        <v>166.88095238095201</v>
       </c>
       <c r="T62">
-        <v>81.1388888888888</v>
+        <v>125.388888888888</v>
       </c>
       <c r="V62">
-        <v>225.19047619047601</v>
+        <v>193.833333333333</v>
       </c>
       <c r="W62">
-        <v>76.6666666666666</v>
+        <v>103.833333333333</v>
       </c>
       <c r="Y62">
-        <v>242.51190476190399</v>
+        <v>201.94047619047601</v>
       </c>
       <c r="Z62">
-        <v>48.6944444444444</v>
+        <v>91.0277777777777</v>
       </c>
       <c r="AB62">
-        <v>181.82142857142799</v>
+        <v>222.96428571428501</v>
       </c>
       <c r="AC62">
-        <v>127.194444444444</v>
+        <v>83.0833333333333</v>
       </c>
     </row>
     <row r="63" spans="1:29">
       <c r="A63">
-        <v>239.59523809523799</v>
+        <v>211.42857142857099</v>
       </c>
       <c r="B63">
-        <v>64.3888888888888</v>
+        <v>93.3333333333333</v>
       </c>
       <c r="D63">
-        <v>178.23809523809501</v>
+        <v>209.75</v>
       </c>
       <c r="E63">
-        <v>118.444444444444</v>
+        <v>91.25</v>
       </c>
       <c r="G63">
-        <v>224.21428571428501</v>
+        <v>240.85714285714201</v>
       </c>
       <c r="H63">
-        <v>82.0555555555555</v>
+        <v>59.6666666666666</v>
       </c>
       <c r="J63">
-        <v>221.619047619047</v>
+        <v>246.72619047619</v>
       </c>
       <c r="K63">
-        <v>83.7777777777777</v>
+        <v>55.5277777777777</v>
       </c>
       <c r="M63">
-        <v>171.77380952380901</v>
+        <v>164.23809523809501</v>
       </c>
       <c r="N63">
-        <v>141.194444444444</v>
+        <v>133.888888888888</v>
       </c>
       <c r="P63">
-        <v>203.82142857142799</v>
+        <v>203.07142857142799</v>
       </c>
       <c r="Q63">
-        <v>92.8611111111111</v>
+        <v>99.5</v>
       </c>
       <c r="S63">
-        <v>198.309523809523</v>
+        <v>169.92857142857099</v>
       </c>
       <c r="T63">
-        <v>83.0555555555555</v>
+        <v>128.055555555555</v>
       </c>
       <c r="V63">
-        <v>227.35714285714201</v>
+        <v>194.26190476190399</v>
       </c>
       <c r="W63">
-        <v>78.9444444444444</v>
+        <v>109.722222222222</v>
       </c>
       <c r="Y63">
-        <v>243.60714285714201</v>
+        <v>203.869047619047</v>
       </c>
       <c r="Z63">
-        <v>52.3611111111111</v>
+        <v>96.9722222222222</v>
       </c>
       <c r="AB63">
-        <v>184.85714285714201</v>
+        <v>226.083333333333</v>
       </c>
       <c r="AC63">
-        <v>130.666666666666</v>
+        <v>85.25</v>
       </c>
     </row>
     <row r="64" spans="1:29">
       <c r="A64">
-        <v>240.94047619047601</v>
+        <v>214.54761904761901</v>
       </c>
       <c r="B64">
-        <v>68.0277777777777</v>
+        <v>93.6111111111111</v>
       </c>
       <c r="D64">
-        <v>183.20238095238</v>
+        <v>211.77380952380901</v>
       </c>
       <c r="E64">
-        <v>120.083333333333</v>
+        <v>93.75</v>
       </c>
       <c r="G64">
-        <v>228.19047619047601</v>
+        <v>241.369047619047</v>
       </c>
       <c r="H64">
-        <v>81.8888888888888</v>
+        <v>68.1388888888888</v>
       </c>
       <c r="J64">
-        <v>222.85714285714201</v>
+        <v>244.48809523809501</v>
       </c>
       <c r="K64">
-        <v>88.5555555555555</v>
+        <v>63.8611111111111</v>
       </c>
       <c r="M64">
-        <v>178.25</v>
+        <v>165.42857142857099</v>
       </c>
       <c r="N64">
-        <v>140.527777777777</v>
+        <v>136.555555555555</v>
       </c>
       <c r="P64">
-        <v>206.65476190476099</v>
+        <v>205.42857142857099</v>
       </c>
       <c r="Q64">
-        <v>94.3611111111111</v>
+        <v>102</v>
       </c>
       <c r="S64">
-        <v>201.916666666666</v>
+        <v>172.809523809523</v>
       </c>
       <c r="T64">
-        <v>83.6388888888888</v>
+        <v>130.555555555555</v>
       </c>
       <c r="V64">
-        <v>227.26190476190399</v>
+        <v>194.02380952380901</v>
       </c>
       <c r="W64">
-        <v>85.5</v>
+        <v>112.5</v>
       </c>
       <c r="Y64">
-        <v>243.059523809523</v>
+        <v>207.166666666666</v>
       </c>
       <c r="Z64">
-        <v>60.8611111111111</v>
+        <v>98.7222222222222</v>
       </c>
       <c r="AB64">
-        <v>189.119047619047</v>
+        <v>228.76190476190399</v>
       </c>
       <c r="AC64">
-        <v>131.277777777777</v>
+        <v>86.7777777777777</v>
       </c>
     </row>
     <row r="65" spans="1:29">
       <c r="A65">
-        <v>239.96428571428501</v>
+        <v>218.67857142857099</v>
       </c>
       <c r="B65">
-        <v>71.75</v>
+        <v>95.1944444444444</v>
       </c>
       <c r="D65">
-        <v>186.95238095238</v>
+        <v>211.82142857142799</v>
       </c>
       <c r="E65">
-        <v>122.777777777777</v>
+        <v>97.3055555555555</v>
       </c>
       <c r="G65">
-        <v>232.38095238095201</v>
+        <v>240.01190476190399</v>
       </c>
       <c r="H65">
-        <v>84.5555555555555</v>
+        <v>74.1944444444444</v>
       </c>
       <c r="J65">
-        <v>223.119047619047</v>
+        <v>241.92857142857099</v>
       </c>
       <c r="K65">
-        <v>94.3888888888888</v>
+        <v>69.1666666666666</v>
       </c>
       <c r="M65">
-        <v>184.92857142857099</v>
+        <v>170.10714285714201</v>
       </c>
       <c r="N65">
-        <v>140.611111111111</v>
+        <v>137.638888888888</v>
       </c>
       <c r="P65">
-        <v>209.90476190476099</v>
+        <v>208.40476190476099</v>
       </c>
       <c r="Q65">
-        <v>96.4444444444444</v>
+        <v>105.611111111111</v>
       </c>
       <c r="S65">
-        <v>206.85714285714201</v>
+        <v>176.45238095238</v>
       </c>
       <c r="T65">
-        <v>83.5555555555555</v>
+        <v>132.611111111111</v>
       </c>
       <c r="V65">
-        <v>227.809523809523</v>
+        <v>197.059523809523</v>
       </c>
       <c r="W65">
-        <v>91.6666666666666</v>
+        <v>113.416666666666</v>
       </c>
       <c r="Y65">
-        <v>241.083333333333</v>
+        <v>212.52380952380901</v>
       </c>
       <c r="Z65">
-        <v>68.0277777777777</v>
+        <v>98.6666666666666</v>
       </c>
       <c r="AB65">
-        <v>191.916666666666</v>
+        <v>231.25</v>
       </c>
       <c r="AC65">
-        <v>133.638888888888</v>
+        <v>88.3055555555555</v>
       </c>
     </row>
     <row r="66" spans="1:29">
       <c r="A66">
-        <v>238.119047619047</v>
+        <v>223.21428571428501</v>
       </c>
       <c r="B66">
-        <v>79.5</v>
+        <v>95.5</v>
       </c>
       <c r="D66">
-        <v>190.142857142857</v>
+        <v>209.90476190476099</v>
       </c>
       <c r="E66">
-        <v>124.111111111111</v>
+        <v>105.111111111111</v>
       </c>
       <c r="G66">
-        <v>234.96428571428501</v>
+        <v>238.02380952380901</v>
       </c>
       <c r="H66">
-        <v>87.75</v>
+        <v>82.7222222222222</v>
       </c>
       <c r="J66">
-        <v>224.10714285714201</v>
+        <v>239.40476190476099</v>
       </c>
       <c r="K66">
-        <v>100.083333333333</v>
+        <v>75.8333333333333</v>
       </c>
       <c r="M66">
-        <v>189.833333333333</v>
+        <v>175.67857142857099</v>
       </c>
       <c r="N66">
-        <v>140.277777777777</v>
+        <v>136.972222222222</v>
       </c>
       <c r="P66">
-        <v>213.35714285714201</v>
+        <v>209.21428571428501</v>
       </c>
       <c r="Q66">
-        <v>99.2777777777777</v>
+        <v>110.388888888888</v>
       </c>
       <c r="S66">
-        <v>210.333333333333</v>
+        <v>179.916666666666</v>
       </c>
       <c r="T66">
-        <v>83.4444444444444</v>
+        <v>134.194444444444</v>
       </c>
       <c r="V66">
-        <v>227.5</v>
+        <v>199.35714285714201</v>
       </c>
       <c r="W66">
-        <v>96.7222222222222</v>
+        <v>115.722222222222</v>
       </c>
       <c r="Y66">
-        <v>239.142857142857</v>
+        <v>216.22619047619</v>
       </c>
       <c r="Z66">
-        <v>75</v>
+        <v>99.5833333333333</v>
       </c>
       <c r="AB66">
-        <v>195.47619047619</v>
+        <v>233.85714285714201</v>
       </c>
       <c r="AC66">
-        <v>137.111111111111</v>
+        <v>90.5555555555555</v>
       </c>
     </row>
     <row r="67" spans="1:29">
       <c r="A67">
-        <v>236.166666666666</v>
+        <v>224.72619047619</v>
       </c>
       <c r="B67">
-        <v>84.2777777777777</v>
+        <v>98.75</v>
       </c>
       <c r="D67">
-        <v>193.25</v>
+        <v>208.166666666666</v>
       </c>
       <c r="E67">
-        <v>128.083333333333</v>
+        <v>111.611111111111</v>
       </c>
       <c r="G67">
-        <v>235.28571428571399</v>
+        <v>235.619047619047</v>
       </c>
       <c r="H67">
-        <v>92.1111111111111</v>
+        <v>89.7777777777777</v>
       </c>
       <c r="J67">
-        <v>225.23809523809501</v>
+        <v>237.44047619047601</v>
       </c>
       <c r="K67">
-        <v>107</v>
+        <v>87.0833333333333</v>
       </c>
       <c r="M67">
-        <v>194.88095238095201</v>
+        <v>181.65476190476099</v>
       </c>
       <c r="N67">
-        <v>139.722222222222</v>
+        <v>136.027777777777</v>
       </c>
       <c r="P67">
-        <v>217.166666666666</v>
+        <v>212</v>
       </c>
       <c r="Q67">
-        <v>102.388888888888</v>
+        <v>110.888888888888</v>
       </c>
       <c r="S67">
-        <v>215.70238095238</v>
+        <v>181.53571428571399</v>
       </c>
       <c r="T67">
-        <v>84.25</v>
+        <v>136.972222222222</v>
       </c>
       <c r="V67">
-        <v>228.72619047619</v>
+        <v>202.46428571428501</v>
       </c>
       <c r="W67">
-        <v>101.75</v>
+        <v>116.25</v>
       </c>
       <c r="Y67">
-        <v>236.96428571428501</v>
+        <v>219.809523809523</v>
       </c>
       <c r="Z67">
-        <v>83.75</v>
+        <v>103</v>
       </c>
       <c r="AB67">
-        <v>199.48809523809501</v>
+        <v>233.88095238095201</v>
       </c>
       <c r="AC67">
-        <v>139.194444444444</v>
+        <v>95.6111111111111</v>
       </c>
     </row>
     <row r="68" spans="1:29">
       <c r="A68">
-        <v>233.60714285714201</v>
+        <v>225.45238095238</v>
       </c>
       <c r="B68">
-        <v>91.25</v>
+        <v>102.611111111111</v>
       </c>
       <c r="D68">
-        <v>198.07142857142799</v>
+        <v>206.416666666666</v>
       </c>
       <c r="E68">
-        <v>129.611111111111</v>
+        <v>118.472222222222</v>
       </c>
       <c r="G68">
-        <v>234.42857142857099</v>
+        <v>233.083333333333</v>
       </c>
       <c r="H68">
-        <v>98.7777777777777</v>
+        <v>96.0277777777777</v>
       </c>
       <c r="J68">
-        <v>224.78571428571399</v>
+        <v>234.82142857142799</v>
       </c>
       <c r="K68">
-        <v>116.388888888888</v>
+        <v>93.75</v>
       </c>
       <c r="M68">
-        <v>200.76190476190399</v>
+        <v>187.083333333333</v>
       </c>
       <c r="N68">
-        <v>141.111111111111</v>
+        <v>135.472222222222</v>
       </c>
       <c r="P68">
-        <v>221.20238095238</v>
+        <v>214.13095238095201</v>
       </c>
       <c r="Q68">
-        <v>105.305555555555</v>
+        <v>112.472222222222</v>
       </c>
       <c r="S68">
-        <v>219.46428571428501</v>
+        <v>182.54761904761901</v>
       </c>
       <c r="T68">
-        <v>85.4722222222222</v>
+        <v>143.055555555555</v>
       </c>
       <c r="V68">
-        <v>230.13095238095201</v>
+        <v>207.71428571428501</v>
       </c>
       <c r="W68">
-        <v>105.25</v>
+        <v>117.222222222222</v>
       </c>
       <c r="Y68">
-        <v>234.34523809523799</v>
+        <v>223.142857142857</v>
       </c>
       <c r="Z68">
-        <v>90.4166666666666</v>
+        <v>104.111111111111</v>
       </c>
       <c r="AB68">
-        <v>203.38095238095201</v>
+        <v>233.38095238095201</v>
       </c>
       <c r="AC68">
-        <v>140.333333333333</v>
+        <v>101.444444444444</v>
       </c>
     </row>
     <row r="69" spans="1:29">
       <c r="A69">
-        <v>231.51190476190399</v>
+        <v>224.45238095238</v>
       </c>
       <c r="B69">
-        <v>96.25</v>
+        <v>108.833333333333</v>
       </c>
       <c r="D69">
-        <v>201.809523809523</v>
+        <v>208.98809523809501</v>
       </c>
       <c r="E69">
-        <v>129.222222222222</v>
+        <v>122.361111111111</v>
       </c>
       <c r="G69">
-        <v>232.96428571428501</v>
+        <v>230.166666666666</v>
       </c>
       <c r="H69">
-        <v>107.083333333333</v>
+        <v>100.611111111111</v>
       </c>
       <c r="J69">
-        <v>223.642857142857</v>
+        <v>232.32142857142799</v>
       </c>
       <c r="K69">
-        <v>121.722222222222</v>
+        <v>101.25</v>
       </c>
       <c r="M69">
-        <v>207.09523809523799</v>
+        <v>192.71428571428501</v>
       </c>
       <c r="N69">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P69">
-        <v>224.03571428571399</v>
+        <v>215.392857142857</v>
       </c>
       <c r="Q69">
-        <v>108.583333333333</v>
+        <v>116.527777777777</v>
       </c>
       <c r="S69">
-        <v>222.82142857142799</v>
+        <v>185.71428571428501</v>
       </c>
       <c r="T69">
-        <v>87.0833333333333</v>
+        <v>144.666666666666</v>
       </c>
       <c r="V69">
-        <v>230.29761904761901</v>
+        <v>213.142857142857</v>
       </c>
       <c r="W69">
-        <v>109.194444444444</v>
+        <v>116.777777777777</v>
       </c>
       <c r="Y69">
-        <v>231.78571428571399</v>
+        <v>225.15476190476099</v>
       </c>
       <c r="Z69">
-        <v>97.5</v>
+        <v>108.083333333333</v>
       </c>
       <c r="AB69">
-        <v>204.869047619047</v>
+        <v>232.309523809523</v>
       </c>
       <c r="AC69">
-        <v>143.083333333333</v>
+        <v>108.388888888888</v>
       </c>
     </row>
     <row r="70" spans="1:29">
       <c r="A70">
-        <v>229.23809523809501</v>
+        <v>224.85714285714201</v>
       </c>
       <c r="B70">
-        <v>105</v>
+        <v>112.888888888888</v>
       </c>
       <c r="D70">
-        <v>205.22619047619</v>
+        <v>214.28571428571399</v>
       </c>
       <c r="E70">
-        <v>130.138888888888</v>
+        <v>123.888888888888</v>
       </c>
       <c r="G70">
-        <v>230.559523809523</v>
+        <v>228.23809523809501</v>
       </c>
       <c r="H70">
-        <v>114.583333333333</v>
+        <v>106.222222222222</v>
       </c>
       <c r="J70">
-        <v>222.583333333333</v>
+        <v>229.82142857142799</v>
       </c>
       <c r="K70">
-        <v>130.861111111111</v>
+        <v>108.75</v>
       </c>
       <c r="M70">
-        <v>213.333333333333</v>
+        <v>198.29761904761901</v>
       </c>
       <c r="N70">
-        <v>140.666666666666</v>
+        <v>133.194444444444</v>
       </c>
       <c r="P70">
-        <v>225.34523809523799</v>
+        <v>217.90476190476099</v>
       </c>
       <c r="Q70">
-        <v>112.638888888888</v>
+        <v>118.111111111111</v>
       </c>
       <c r="S70">
-        <v>223.392857142857</v>
+        <v>188.44047619047601</v>
       </c>
       <c r="T70">
-        <v>92.75</v>
+        <v>147.75</v>
       </c>
       <c r="V70">
-        <v>228.77380952380901</v>
+        <v>217.44047619047601</v>
       </c>
       <c r="W70">
-        <v>114.305555555555</v>
+        <v>117.305555555555</v>
       </c>
       <c r="Y70">
-        <v>229.34523809523799</v>
+        <v>226</v>
       </c>
       <c r="Z70">
-        <v>105.416666666666</v>
+        <v>111</v>
       </c>
       <c r="AB70">
-        <v>206.40476190476099</v>
+        <v>230.59523809523799</v>
       </c>
       <c r="AC70">
-        <v>147.388888888888</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
       <c r="A71">
-        <v>226.96428571428501</v>
+        <v>225.57142857142799</v>
       </c>
       <c r="B71">
-        <v>113.75</v>
+        <v>118.333333333333</v>
       </c>
       <c r="D71">
-        <v>209.51190476190399</v>
+        <v>219.10714285714201</v>
       </c>
       <c r="E71">
-        <v>133.138888888888</v>
+        <v>125.083333333333</v>
       </c>
       <c r="G71">
-        <v>228.27380952380901</v>
+        <v>226.5</v>
       </c>
       <c r="H71">
+        <v>112.833333333333</v>
+      </c>
+      <c r="J71">
+        <v>227.20238095238</v>
+      </c>
+      <c r="K71">
+        <v>115.416666666666</v>
+      </c>
+      <c r="M71">
+        <v>203.32142857142799</v>
+      </c>
+      <c r="N71">
+        <v>131.805555555555</v>
+      </c>
+      <c r="P71">
+        <v>220.059523809523</v>
+      </c>
+      <c r="Q71">
+        <v>121.75</v>
+      </c>
+      <c r="S71">
+        <v>192.84523809523799</v>
+      </c>
+      <c r="T71">
+        <v>150.361111111111</v>
+      </c>
+      <c r="V71">
+        <v>221.34523809523799</v>
+      </c>
+      <c r="W71">
+        <v>117.083333333333</v>
+      </c>
+      <c r="Y71">
+        <v>225.57142857142799</v>
+      </c>
+      <c r="Z71">
+        <v>116.333333333333</v>
+      </c>
+      <c r="AB71">
+        <v>227.79761904761901</v>
+      </c>
+      <c r="AC71">
         <v>122.916666666666</v>
-      </c>
-      <c r="J71">
-        <v>220.13095238095201</v>
-      </c>
-      <c r="K71">
-        <v>136.138888888888</v>
-      </c>
-      <c r="M71">
-        <v>216.69047619047601</v>
-      </c>
-      <c r="N71">
-        <v>140.5</v>
-      </c>
-      <c r="P71">
-        <v>224.96428571428501</v>
-      </c>
-      <c r="Q71">
-        <v>119.305555555555</v>
-      </c>
-      <c r="S71">
-        <v>222.809523809523</v>
-      </c>
-      <c r="T71">
-        <v>97.5555555555555</v>
-      </c>
-      <c r="V71">
-        <v>227.19047619047601</v>
-      </c>
-      <c r="W71">
-        <v>120.888888888888</v>
-      </c>
-      <c r="Y71">
-        <v>226.666666666666</v>
-      </c>
-      <c r="Z71">
-        <v>111.666666666666</v>
-      </c>
-      <c r="AB71">
-        <v>207.369047619047</v>
-      </c>
-      <c r="AC71">
-        <v>150.138888888888</v>
       </c>
     </row>
     <row r="72" spans="1:29">
       <c r="A72">
-        <v>224.34523809523799</v>
+        <v>224.392857142857</v>
       </c>
       <c r="B72">
-        <v>120.416666666666</v>
+        <v>125.638888888888</v>
       </c>
       <c r="D72">
-        <v>212.76190476190399</v>
+        <v>220.47619047619</v>
       </c>
       <c r="E72">
-        <v>134.666666666666</v>
+        <v>127.555555555555</v>
       </c>
       <c r="G72">
+        <v>224.19047619047601</v>
+      </c>
+      <c r="H72">
+        <v>120</v>
+      </c>
+      <c r="J72">
+        <v>225.17857142857099</v>
+      </c>
+      <c r="K72">
+        <v>126.25</v>
+      </c>
+      <c r="M72">
+        <v>209.17857142857099</v>
+      </c>
+      <c r="N72">
+        <v>131.25</v>
+      </c>
+      <c r="P72">
+        <v>222.15476190476099</v>
+      </c>
+      <c r="Q72">
+        <v>127.194444444444</v>
+      </c>
+      <c r="S72">
+        <v>198.666666666666</v>
+      </c>
+      <c r="T72">
+        <v>149.333333333333</v>
+      </c>
+      <c r="V72">
+        <v>222.01190476190399</v>
+      </c>
+      <c r="W72">
+        <v>120.75</v>
+      </c>
+      <c r="Y72">
+        <v>223.78571428571399</v>
+      </c>
+      <c r="Z72">
+        <v>122.611111111111</v>
+      </c>
+      <c r="AB72">
         <v>225.53571428571399</v>
       </c>
-      <c r="H72">
-        <v>128.75</v>
-      </c>
-      <c r="J72">
-        <v>217.60714285714201</v>
-      </c>
-      <c r="K72">
-        <v>141.027777777777</v>
-      </c>
-      <c r="M72">
-        <v>218.69047619047601</v>
-      </c>
-      <c r="N72">
-        <v>144.055555555555</v>
-      </c>
-      <c r="P72">
-        <v>223.67857142857099</v>
-      </c>
-      <c r="Q72">
-        <v>127.083333333333</v>
-      </c>
-      <c r="S72">
-        <v>221.51190476190399</v>
-      </c>
-      <c r="T72">
-        <v>105.472222222222</v>
-      </c>
-      <c r="V72">
-        <v>225.38095238095201</v>
-      </c>
-      <c r="W72">
-        <v>129</v>
-      </c>
-      <c r="Y72">
-        <v>224.28571428571399</v>
-      </c>
-      <c r="Z72">
-        <v>120</v>
-      </c>
-      <c r="AB72">
-        <v>209.666666666666</v>
-      </c>
       <c r="AC72">
-        <v>153</v>
+        <v>132.083333333333</v>
       </c>
     </row>
     <row r="73" spans="1:29">
       <c r="A73">
-        <v>221.666666666666</v>
+        <v>222.27380952380901</v>
       </c>
       <c r="B73">
-        <v>126.666666666666</v>
+        <v>132.138888888888</v>
       </c>
       <c r="D73">
-        <v>216.392857142857</v>
+        <v>219.73809523809501</v>
       </c>
       <c r="E73">
-        <v>138.972222222222</v>
+        <v>133.166666666666</v>
       </c>
       <c r="G73">
-        <v>223.15476190476099</v>
+        <v>221.60714285714201</v>
       </c>
       <c r="H73">
-        <v>137.083333333333</v>
+        <v>126.25</v>
       </c>
       <c r="J73">
-        <v>215.142857142857</v>
+        <v>222.67857142857099</v>
       </c>
       <c r="K73">
-        <v>147.777777777777</v>
+        <v>133.75</v>
       </c>
       <c r="M73">
-        <v>220.03571428571399</v>
+        <v>212.60714285714201</v>
       </c>
       <c r="N73">
-        <v>148.805555555555</v>
+        <v>133.916666666666</v>
       </c>
       <c r="P73">
-        <v>222.26190476190399</v>
+        <v>221.5</v>
       </c>
       <c r="Q73">
-        <v>132.5</v>
+        <v>132.722222222222</v>
       </c>
       <c r="S73">
-        <v>219.53571428571399</v>
+        <v>202.98809523809501</v>
       </c>
       <c r="T73">
-        <v>114.638888888888</v>
+        <v>152.25</v>
       </c>
       <c r="V73">
-        <v>223.27380952380901</v>
+        <v>220.44047619047601</v>
       </c>
       <c r="W73">
-        <v>137.916666666666</v>
+        <v>128.305555555555</v>
       </c>
       <c r="Y73">
-        <v>222.083333333333</v>
+        <v>221.75</v>
       </c>
       <c r="Z73">
-        <v>129.583333333333</v>
+        <v>129.694444444444</v>
       </c>
       <c r="AB73">
-        <v>209.28571428571399</v>
+        <v>222.833333333333</v>
       </c>
       <c r="AC73">
-        <v>158.777777777777</v>
+        <v>137.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
       <c r="A74">
+        <v>219.82142857142799</v>
+      </c>
+      <c r="B74">
+        <v>139.638888888888</v>
+      </c>
+      <c r="D74">
+        <v>218.79761904761901</v>
+      </c>
+      <c r="E74">
+        <v>140.027777777777</v>
+      </c>
+      <c r="G74">
         <v>219.10714285714201</v>
       </c>
-      <c r="B74">
+      <c r="H74">
         <v>133.75</v>
       </c>
-      <c r="D74">
-        <v>217.15476190476099</v>
-      </c>
-      <c r="E74">
-        <v>144.305555555555</v>
-      </c>
-      <c r="G74">
-        <v>220.47619047619</v>
-      </c>
-      <c r="H74">
-        <v>143.333333333333</v>
-      </c>
       <c r="J74">
-        <v>213.26190476190399</v>
+        <v>220.35714285714201</v>
       </c>
       <c r="K74">
-        <v>154.388888888888</v>
+        <v>142.5</v>
       </c>
       <c r="M74">
-        <v>219.77380952380901</v>
+        <v>213.28571428571399</v>
       </c>
       <c r="N74">
-        <v>154.305555555555</v>
+        <v>138.555555555555</v>
       </c>
       <c r="P74">
-        <v>220.059523809523</v>
+        <v>219.46428571428501</v>
       </c>
       <c r="Q74">
-        <v>140.416666666666</v>
+        <v>139.583333333333</v>
       </c>
       <c r="S74">
-        <v>217.333333333333</v>
+        <v>208.79761904761901</v>
       </c>
       <c r="T74">
-        <v>121.666666666666</v>
+        <v>151.361111111111</v>
       </c>
       <c r="V74">
-        <v>220.65476190476099</v>
+        <v>218.46428571428501</v>
       </c>
       <c r="W74">
-        <v>144.583333333333</v>
+        <v>133.25</v>
       </c>
       <c r="Y74">
-        <v>219.82142857142799</v>
+        <v>219.34523809523799</v>
       </c>
       <c r="Z74">
-        <v>138.75</v>
+        <v>135.416666666666</v>
       </c>
       <c r="AB74">
-        <v>210.142857142857</v>
+        <v>220.45238095238</v>
       </c>
       <c r="AC74">
-        <v>164.333333333333</v>
+        <v>144.166666666666</v>
       </c>
     </row>
     <row r="75" spans="1:29">
       <c r="A75">
-        <v>216.90476190476099</v>
+        <v>217.20238095238</v>
       </c>
       <c r="B75">
-        <v>143.333333333333</v>
+        <v>146.305555555555</v>
       </c>
       <c r="D75">
-        <v>215.5</v>
+        <v>217.38095238095201</v>
       </c>
       <c r="E75">
-        <v>149.277777777777</v>
+        <v>148.333333333333</v>
       </c>
       <c r="G75">
-        <v>217.67857142857099</v>
+        <v>216.309523809523</v>
       </c>
       <c r="H75">
-        <v>148.75</v>
+        <v>139.166666666666</v>
       </c>
       <c r="J75">
-        <v>213.32142857142799</v>
+        <v>217.73809523809501</v>
       </c>
       <c r="K75">
-        <v>158.25</v>
+        <v>149.166666666666</v>
       </c>
       <c r="M75">
-        <v>218.04761904761901</v>
+        <v>214.5</v>
       </c>
       <c r="N75">
-        <v>162</v>
+        <v>142.166666666666</v>
       </c>
       <c r="P75">
-        <v>217.73809523809501</v>
+        <v>216.892857142857</v>
       </c>
       <c r="Q75">
-        <v>149.166666666666</v>
+        <v>144.583333333333</v>
       </c>
       <c r="S75">
-        <v>215.059523809523</v>
+        <v>212.13095238095201</v>
       </c>
       <c r="T75">
-        <v>130.416666666666</v>
+        <v>152.916666666666</v>
       </c>
       <c r="V75">
-        <v>218.51190476190399</v>
+        <v>216.42857142857099</v>
       </c>
       <c r="W75">
-        <v>154.583333333333</v>
+        <v>140.111111111111</v>
       </c>
       <c r="Y75">
-        <v>217.32142857142799</v>
+        <v>216.78571428571399</v>
       </c>
       <c r="Z75">
-        <v>146.25</v>
+        <v>142.5</v>
       </c>
       <c r="AB75">
-        <v>213.84523809523799</v>
+        <v>218.392857142857</v>
       </c>
       <c r="AC75">
-        <v>166.805555555555</v>
+        <v>153.75</v>
       </c>
     </row>
     <row r="76" spans="1:29">
       <c r="A76">
-        <v>214.46428571428501</v>
+        <v>214.70238095238</v>
       </c>
       <c r="B76">
-        <v>151.25</v>
+        <v>152.916666666666</v>
       </c>
       <c r="D76">
-        <v>213.869047619047</v>
+        <v>215.53571428571399</v>
       </c>
       <c r="E76">
-        <v>157.083333333333</v>
+        <v>158.75</v>
       </c>
       <c r="G76">
-        <v>215.35714285714201</v>
+        <v>213.809523809523</v>
       </c>
       <c r="H76">
-        <v>157.5</v>
+        <v>146.666666666666</v>
       </c>
       <c r="J76">
-        <v>214.892857142857</v>
+        <v>215.77380952380901</v>
       </c>
       <c r="K76">
-        <v>162.138888888888</v>
+        <v>160.416666666666</v>
       </c>
       <c r="M76">
-        <v>216.40476190476099</v>
+        <v>213.416666666666</v>
       </c>
       <c r="N76">
-        <v>169.166666666666</v>
+        <v>149.583333333333</v>
       </c>
       <c r="P76">
-        <v>215.416666666666</v>
+        <v>214.76190476190399</v>
       </c>
       <c r="Q76">
-        <v>157.916666666666</v>
+        <v>153.333333333333</v>
       </c>
       <c r="S76">
-        <v>212.38095238095201</v>
+        <v>212.26190476190399</v>
       </c>
       <c r="T76">
-        <v>136.666666666666</v>
+        <v>155.277777777777</v>
       </c>
       <c r="V76">
-        <v>215.95238095238</v>
+        <v>213.69047619047601</v>
       </c>
       <c r="W76">
-        <v>161.666666666666</v>
+        <v>145.944444444444</v>
       </c>
       <c r="Y76">
-        <v>215.17857142857099</v>
+        <v>213.92857142857099</v>
       </c>
       <c r="Z76">
-        <v>156.25</v>
+        <v>147.5</v>
       </c>
       <c r="AB76">
-        <v>215.29761904761901</v>
+        <v>215.59523809523799</v>
       </c>
       <c r="AC76">
-        <v>169.305555555555</v>
+        <v>159.166666666666</v>
       </c>
     </row>
     <row r="77" spans="1:29">
       <c r="A77">
-        <v>212.02380952380901</v>
+        <v>211.72619047619</v>
       </c>
       <c r="B77">
-        <v>159.166666666666</v>
+        <v>157.083333333333</v>
       </c>
       <c r="D77">
-        <v>212.22619047619</v>
+        <v>213.03571428571399</v>
       </c>
       <c r="E77">
-        <v>164.583333333333</v>
+        <v>166.25</v>
       </c>
       <c r="G77">
-        <v>213.09523809523799</v>
+        <v>211.369047619047</v>
       </c>
       <c r="H77">
-        <v>166.666666666666</v>
+        <v>154.583333333333</v>
       </c>
       <c r="J77">
-        <v>213.02380952380901</v>
+        <v>213.03571428571399</v>
       </c>
       <c r="K77">
-        <v>167.5</v>
+        <v>166.25</v>
       </c>
       <c r="M77">
-        <v>214.35714285714201</v>
+        <v>211.25</v>
       </c>
       <c r="N77">
-        <v>175.833333333333</v>
+        <v>157.083333333333</v>
       </c>
       <c r="P77">
-        <v>213.21428571428501</v>
+        <v>212.142857142857</v>
       </c>
       <c r="Q77">
-        <v>167.5</v>
+        <v>160</v>
       </c>
       <c r="S77">
-        <v>209.76190476190399</v>
+        <v>210.5</v>
       </c>
       <c r="T77">
-        <v>143.333333333333</v>
+        <v>161.166666666666</v>
       </c>
       <c r="V77">
-        <v>213.27380952380901</v>
+        <v>211.309523809523</v>
       </c>
       <c r="W77">
-        <v>167.916666666666</v>
+        <v>154.166666666666</v>
       </c>
       <c r="Y77">
-        <v>212.73809523809501</v>
+        <v>211.309523809523</v>
       </c>
       <c r="Z77">
-        <v>164.166666666666</v>
+        <v>154.166666666666</v>
       </c>
       <c r="AB77">
-        <v>213.53571428571399</v>
+        <v>212.5</v>
       </c>
       <c r="AC77">
-        <v>172.75</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="78" spans="1:29">
       <c r="A78">
-        <v>209.52380952380901</v>
+        <v>209.10714285714201</v>
       </c>
       <c r="B78">
-        <v>166.666666666666</v>
+        <v>163.75</v>
       </c>
       <c r="D78">
         <v>210.416666666666</v>
@@ -5292,52 +5314,52 @@
         <v>172.916666666666</v>
       </c>
       <c r="G78">
-        <v>210.59523809523799</v>
+        <v>208.98809523809501</v>
       </c>
       <c r="H78">
-        <v>174.166666666666</v>
+        <v>162.916666666666</v>
       </c>
       <c r="J78">
-        <v>210.65476190476099</v>
+        <v>210</v>
       </c>
       <c r="K78">
-        <v>174.583333333333</v>
+        <v>170</v>
       </c>
       <c r="M78">
-        <v>211.67857142857099</v>
+        <v>208.82142857142799</v>
       </c>
       <c r="N78">
-        <v>182.083333333333</v>
+        <v>163.75</v>
       </c>
       <c r="P78">
-        <v>210.47619047619</v>
+        <v>209.82142857142799</v>
       </c>
       <c r="Q78">
-        <v>173.333333333333</v>
+        <v>168.75</v>
       </c>
       <c r="S78">
-        <v>208.15476190476099</v>
+        <v>209.01190476190399</v>
       </c>
       <c r="T78">
-        <v>157.083333333333</v>
+        <v>169.083333333333</v>
       </c>
       <c r="V78">
-        <v>210.77380952380901</v>
+        <v>208.98809523809501</v>
       </c>
       <c r="W78">
-        <v>175.416666666666</v>
+        <v>162.916666666666</v>
       </c>
       <c r="Y78">
-        <v>210.17857142857099</v>
+        <v>208.51190476190399</v>
       </c>
       <c r="Z78">
-        <v>171.25</v>
+        <v>159.583333333333</v>
       </c>
       <c r="AB78">
-        <v>211.07142857142799</v>
+        <v>209.642857142857</v>
       </c>
       <c r="AC78">
-        <v>177.5</v>
+        <v>167.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -5348,182 +5370,182 @@
         <v>174.166666666666</v>
       </c>
       <c r="D79">
-        <v>207.85714285714201</v>
+        <v>208.15476190476099</v>
       </c>
       <c r="E79">
-        <v>180</v>
+        <v>182.083333333333</v>
       </c>
       <c r="G79">
-        <v>207.97619047619</v>
+        <v>206.54761904761901</v>
       </c>
       <c r="H79">
-        <v>180.833333333333</v>
+        <v>170.833333333333</v>
       </c>
       <c r="J79">
-        <v>208.03571428571399</v>
+        <v>207.32142857142799</v>
       </c>
       <c r="K79">
-        <v>181.25</v>
+        <v>176.25</v>
       </c>
       <c r="M79">
-        <v>208.809523809523</v>
+        <v>206.84523809523799</v>
       </c>
       <c r="N79">
-        <v>186.666666666666</v>
+        <v>172.916666666666</v>
       </c>
       <c r="P79">
-        <v>208.27380952380901</v>
+        <v>207.5</v>
       </c>
       <c r="Q79">
-        <v>182.916666666666</v>
+        <v>177.5</v>
       </c>
       <c r="S79">
-        <v>205.95238095238</v>
+        <v>207.51190476190399</v>
       </c>
       <c r="T79">
-        <v>166.666666666666</v>
+        <v>177.916666666666</v>
       </c>
       <c r="V79">
-        <v>207.97619047619</v>
+        <v>206.369047619047</v>
       </c>
       <c r="W79">
-        <v>180.833333333333</v>
+        <v>169.583333333333</v>
       </c>
       <c r="Y79">
-        <v>207.44047619047601</v>
+        <v>206.25</v>
       </c>
       <c r="Z79">
-        <v>177.083333333333</v>
+        <v>168.75</v>
       </c>
       <c r="AB79">
-        <v>208.09523809523799</v>
+        <v>206.96428571428501</v>
       </c>
       <c r="AC79">
-        <v>181.666666666666</v>
+        <v>173.75</v>
       </c>
     </row>
     <row r="80" spans="1:29">
       <c r="A80">
+        <v>204.88095238095201</v>
+      </c>
+      <c r="B80">
+        <v>184.166666666666</v>
+      </c>
+      <c r="D80">
+        <v>205.71428571428501</v>
+      </c>
+      <c r="E80">
+        <v>190</v>
+      </c>
+      <c r="G80">
+        <v>204.40476190476099</v>
+      </c>
+      <c r="H80">
+        <v>180.833333333333</v>
+      </c>
+      <c r="J80">
+        <v>205</v>
+      </c>
+      <c r="K80">
+        <v>185</v>
+      </c>
+      <c r="M80">
+        <v>204.40476190476099</v>
+      </c>
+      <c r="N80">
+        <v>180.833333333333</v>
+      </c>
+      <c r="P80">
+        <v>204.94047619047601</v>
+      </c>
+      <c r="Q80">
+        <v>184.583333333333</v>
+      </c>
+      <c r="S80">
+        <v>205.23809523809501</v>
+      </c>
+      <c r="T80">
+        <v>186.666666666666</v>
+      </c>
+      <c r="V80">
+        <v>204.166666666666</v>
+      </c>
+      <c r="W80">
+        <v>179.166666666666</v>
+      </c>
+      <c r="Y80">
+        <v>203.98809523809501</v>
+      </c>
+      <c r="Z80">
+        <v>177.916666666666</v>
+      </c>
+      <c r="AB80">
         <v>204.46428571428501</v>
       </c>
-      <c r="B80">
+      <c r="AC80">
         <v>181.25</v>
-      </c>
-      <c r="D80">
-        <v>205.059523809523</v>
-      </c>
-      <c r="E80">
-        <v>185.416666666666</v>
-      </c>
-      <c r="G80">
-        <v>205.35714285714201</v>
-      </c>
-      <c r="H80">
-        <v>187.5</v>
-      </c>
-      <c r="J80">
-        <v>205.53571428571399</v>
-      </c>
-      <c r="K80">
-        <v>188.75</v>
-      </c>
-      <c r="M80">
-        <v>206.42857142857099</v>
-      </c>
-      <c r="N80">
-        <v>195</v>
-      </c>
-      <c r="P80">
-        <v>205.53571428571399</v>
-      </c>
-      <c r="Q80">
-        <v>188.75</v>
-      </c>
-      <c r="S80">
-        <v>203.869047619047</v>
-      </c>
-      <c r="T80">
-        <v>177.083333333333</v>
-      </c>
-      <c r="V80">
-        <v>205.119047619047</v>
-      </c>
-      <c r="W80">
-        <v>185.833333333333</v>
-      </c>
-      <c r="Y80">
-        <v>204.70238095238</v>
-      </c>
-      <c r="Z80">
-        <v>182.916666666666</v>
-      </c>
-      <c r="AB80">
-        <v>205.35714285714201</v>
-      </c>
-      <c r="AC80">
-        <v>187.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
       <c r="A81">
+        <v>202.26190476190399</v>
+      </c>
+      <c r="B81">
+        <v>190.833333333333</v>
+      </c>
+      <c r="D81">
+        <v>203.21428571428501</v>
+      </c>
+      <c r="E81">
+        <v>197.5</v>
+      </c>
+      <c r="G81">
         <v>202.5</v>
       </c>
-      <c r="B81">
+      <c r="H81">
         <v>192.5</v>
       </c>
-      <c r="D81">
-        <v>202.559523809523</v>
-      </c>
-      <c r="E81">
-        <v>192.916666666666</v>
-      </c>
-      <c r="G81">
-        <v>202.619047619047</v>
-      </c>
-      <c r="H81">
-        <v>193.333333333333</v>
-      </c>
       <c r="J81">
-        <v>202.619047619047</v>
+        <v>202.5</v>
       </c>
       <c r="K81">
-        <v>193.333333333333</v>
+        <v>192.5</v>
       </c>
       <c r="M81">
-        <v>203.392857142857</v>
+        <v>202.26190476190399</v>
       </c>
       <c r="N81">
-        <v>198.75</v>
+        <v>190.833333333333</v>
       </c>
       <c r="P81">
-        <v>202.97619047619</v>
+        <v>202.32142857142799</v>
       </c>
       <c r="Q81">
-        <v>195.833333333333</v>
+        <v>191.25</v>
       </c>
       <c r="S81">
+        <v>202.73809523809501</v>
+      </c>
+      <c r="T81">
+        <v>194.166666666666</v>
+      </c>
+      <c r="V81">
+        <v>202.20238095238</v>
+      </c>
+      <c r="W81">
+        <v>190.416666666666</v>
+      </c>
+      <c r="Y81">
+        <v>201.72619047619</v>
+      </c>
+      <c r="Z81">
+        <v>187.083333333333</v>
+      </c>
+      <c r="AB81">
         <v>202.142857142857</v>
       </c>
-      <c r="T81">
+      <c r="AC81">
         <v>190</v>
-      </c>
-      <c r="V81">
-        <v>202.67857142857099</v>
-      </c>
-      <c r="W81">
-        <v>193.75</v>
-      </c>
-      <c r="Y81">
-        <v>202.5</v>
-      </c>
-      <c r="Z81">
-        <v>192.5</v>
-      </c>
-      <c r="AB81">
-        <v>202.79761904761901</v>
-      </c>
-      <c r="AC81">
-        <v>194.583333333333</v>
       </c>
     </row>
     <row r="82" spans="1:29">
